--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$816</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$A$19:$G$817</definedName>
     <definedName name="ExtensionList">Requirements!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5851" uniqueCount="1882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5860" uniqueCount="1885">
   <si>
     <t>Req ID</t>
   </si>
@@ -4901,10 +4901,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MS-OXORULE_R295</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Verified by requirement: MS-OXORULE_R703.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5318,9 +5314,6 @@
     <t>Verified by derived requirement: MS-OXORULE_R7411.</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not skip evaluation of this rule (ST_SKIP_IF_SCL_IS_SAFE) if the delivered message's PidTagContentFilterSpamConfidenceLevel property ([MS-OXPROPS] section 2.638) has a value of 0xFFFFFFFF.</t>
-  </si>
-  <si>
     <t>[In PidTagRuleName Property] The PidTagRuleName property ([MS-OXPROPS] section 2.950) specifies the name of the rule (2).</t>
   </si>
   <si>
@@ -5465,9 +5458,6 @@
     <t>[In Processing Incoming Messages to a Folder] [Following is a description of what the server does when it executes each action (2) type, as specified in section 2.2.5.1.1, for an incoming message] "OP_REPLY": For more details on suppression of automatic replies, see [MS-OXCMAIL] section 2.2.3.2.14.</t>
   </si>
   <si>
-    <t>[In Processing Incoming Messages to a Folder] [Following is a description of what the server does when it executes each action (2) type, as specified in section 2.2.5.1.1, for an incoming message] "OP_REPLY": The server SHOULD also avoid sending replies to automatically generated messages, which are identified by the PidTagAutoForwarded property ([MS-OXCMSG] section 2.2.1.20), to avoid generating endless autoreply loops.</t>
-  </si>
-  <si>
     <t>[In Message Delivery to a Folder] [Following is a description of what the server does when it executes each action (2) type, as specified in section 2.2.5.1.1, for an incoming message] "OP_OOF_REPLY": The server MUST behave as specified for the "OP_REPLY" action (2).</t>
   </si>
   <si>
@@ -5720,12 +5710,6 @@
     <t>[In Action Flavors] NS (Bitmask 0x00000001): [OP_OOF_REPLY ActionType] [The server SHOULD&lt;6&gt; not send the message to the message sender]The reply template MUST contain recipients (2) in this case [if the NS flag is set].</t>
   </si>
   <si>
-    <t>[In Appendix A: Product Behavior] Implementation does not send the message to the message sender if the ActionType field value is "OP_OOF_REPLY". (Exchange 2016 follows this behavior.)</t>
-  </si>
-  <si>
-    <t>[In Appendix A: Product Behavior] Implementation does send a reply message if the ActionType is "OP_OOF_REPLY". (&lt;6&gt; Section 2.2.5.1.1:  Exchange 2007, Exchange 2010, and Exchange 2013 send a reply message if the ActionType is "OP_OOF_REPLY".)</t>
-  </si>
-  <si>
     <t>Verified by derived requirement: MS-OXORULE_R10192.</t>
   </si>
   <si>
@@ -5934,6 +5918,30 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXORULE_R5741.</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does send a reply message if the ActionType is "OP_OOF_REPLY" if action flavor is NS. (&lt;6&gt; Section 2.2.5.1.1:  Exchange 2007, Exchange 2010, and Exchange 2013 send a reply message if the ActionType is "OP_OOF_REPLY".)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not send the message to the message sender if the ActionType field value is "OP_OOF_REPLY" if action flavor is NS. (Exchange 2016 follows this behavior.)</t>
+  </si>
+  <si>
+    <t>MS-OXORULE_R295</t>
+  </si>
+  <si>
+    <t>[In Processing Incoming Messages to a Folder] [Following is a description of what the server does when it executes each action (2) type, as specified in section 2.2.5.1.1, for an incoming message] "OP_REPLY": The server MAY also avoid sending replies to automatically generated messages, which are identified by the PidTagAutoForwarded property ([MS-OXCMSG] section 2.2.1.20), to avoid generating endless autoreply loops.</t>
+  </si>
+  <si>
+    <t>MS-OXORULE_R528:i,MS-OXORULE_R2:i</t>
+  </si>
+  <si>
+    <t>MS-OXORULE_R5281</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not avoid sending replies to automatically generated messages to avoid generating endless autoreply loops for "OP_REPLY". (Exchange 2003 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[In Appendix A: Product Behavior] Implementation does not skip evaluation of this rule (ST_SKIP_IF_SCL_IS_SAFE) if the delivered message's PidTagContentFilterSpamConfidenceLevel property ([MS-OXPROPS] section 2.638) has a value of 0xFFFFFFFF. (Exchange 2003 and above follow this behavior.)</t>
   </si>
 </sst>
 </file>
@@ -6168,7 +6176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6250,9 +6258,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -6263,6 +6268,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6287,26 +6307,321 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6645,316 +6960,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7084,34 +7089,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I817" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
-  <autoFilter ref="A19:I817"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" connectionId="1">
+  <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="74">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="73">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="72">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="71">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="70">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="69">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="68">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="67">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="66">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7120,12 +7125,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="60"/>
+    <tableColumn id="2" name="Test" dataDxfId="59"/>
+    <tableColumn id="3" name="Description" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7453,7 +7458,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L820"/>
+  <dimension ref="A1:L821"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -7498,7 +7503,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>26</v>
@@ -7509,127 +7514,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7642,12 +7647,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7660,12 +7665,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7678,12 +7683,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7696,60 +7701,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -7791,7 +7796,7 @@
         <v>800</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="22" t="s">
@@ -7841,7 +7846,7 @@
         <v>801</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="22" t="s">
@@ -7966,7 +7971,7 @@
         <v>803</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D27" s="22"/>
       <c r="E27" s="22" t="s">
@@ -8091,7 +8096,7 @@
         <v>804</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22" t="s">
@@ -8191,7 +8196,7 @@
         <v>805</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="29" t="s">
@@ -8216,7 +8221,7 @@
         <v>805</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="29" t="s">
@@ -8266,7 +8271,7 @@
         <v>805</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D39" s="29"/>
       <c r="E39" s="29" t="s">
@@ -8291,7 +8296,7 @@
         <v>805</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D40" s="29"/>
       <c r="E40" s="29" t="s">
@@ -8316,7 +8321,7 @@
         <v>805</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D41" s="29"/>
       <c r="E41" s="29" t="s">
@@ -8618,7 +8623,7 @@
         <v>807</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D53" s="29"/>
       <c r="E53" s="29" t="s">
@@ -8693,7 +8698,7 @@
         <v>807</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D56" s="29"/>
       <c r="E56" s="29" t="s">
@@ -8743,7 +8748,7 @@
         <v>807</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D58" s="29"/>
       <c r="E58" s="29" t="s">
@@ -8793,7 +8798,7 @@
         <v>807</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D60" s="29"/>
       <c r="E60" s="29" t="s">
@@ -9043,7 +9048,7 @@
         <v>809</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="D70" s="29"/>
       <c r="E70" s="29" t="s">
@@ -9068,7 +9073,7 @@
         <v>809</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D71" s="29"/>
       <c r="E71" s="29" t="s">
@@ -9093,7 +9098,7 @@
         <v>809</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="29" t="s">
@@ -9143,7 +9148,7 @@
         <v>810</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29" t="s">
@@ -9168,7 +9173,7 @@
         <v>810</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="29" t="s">
@@ -9195,7 +9200,7 @@
         <v>810</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29" t="s">
@@ -9245,7 +9250,7 @@
         <v>811</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="D78" s="29"/>
       <c r="E78" s="29" t="s">
@@ -9295,7 +9300,7 @@
         <v>811</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D80" s="29"/>
       <c r="E80" s="29" t="s">
@@ -9320,7 +9325,7 @@
         <v>811</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D81" s="29"/>
       <c r="E81" s="29" t="s">
@@ -9345,7 +9350,7 @@
         <v>811</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D82" s="29"/>
       <c r="E82" s="29" t="s">
@@ -9449,7 +9454,7 @@
         <v>811</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="29" t="s">
@@ -9474,7 +9479,7 @@
         <v>811</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="29" t="s">
@@ -9549,7 +9554,7 @@
         <v>811</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="29" t="s">
@@ -9574,7 +9579,7 @@
         <v>811</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="29" t="s">
@@ -9599,7 +9604,7 @@
         <v>811</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="D92" s="29"/>
       <c r="E92" s="29" t="s">
@@ -9649,7 +9654,7 @@
         <v>811</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="D94" s="29"/>
       <c r="E94" s="29" t="s">
@@ -9665,7 +9670,7 @@
         <v>17</v>
       </c>
       <c r="I94" s="20" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="45">
@@ -9676,7 +9681,7 @@
         <v>811</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D95" s="29"/>
       <c r="E95" s="29" t="s">
@@ -9907,7 +9912,7 @@
         <v>812</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="D104" s="29"/>
       <c r="E104" s="29" t="s">
@@ -9957,7 +9962,7 @@
         <v>813</v>
       </c>
       <c r="C106" s="20" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="D106" s="29"/>
       <c r="E106" s="29" t="s">
@@ -9982,7 +9987,7 @@
         <v>813</v>
       </c>
       <c r="C107" s="31" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29" t="s">
@@ -10007,7 +10012,7 @@
         <v>813</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="D108" s="29"/>
       <c r="E108" s="29" t="s">
@@ -10032,7 +10037,7 @@
         <v>813</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="D109" s="29"/>
       <c r="E109" s="29" t="s">
@@ -10082,7 +10087,7 @@
         <v>813</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="D111" s="29"/>
       <c r="E111" s="29" t="s">
@@ -10132,7 +10137,7 @@
         <v>814</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="D113" s="29"/>
       <c r="E113" s="29" t="s">
@@ -10207,7 +10212,7 @@
         <v>815</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="D116" s="29"/>
       <c r="E116" s="29" t="s">
@@ -10257,7 +10262,7 @@
         <v>815</v>
       </c>
       <c r="C118" s="31" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D118" s="29"/>
       <c r="E118" s="29" t="s">
@@ -10307,7 +10312,7 @@
         <v>816</v>
       </c>
       <c r="C120" s="20" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="D120" s="29"/>
       <c r="E120" s="29" t="s">
@@ -10357,7 +10362,7 @@
         <v>816</v>
       </c>
       <c r="C122" s="31" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="D122" s="29"/>
       <c r="E122" s="29" t="s">
@@ -10407,7 +10412,7 @@
         <v>817</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D124" s="29"/>
       <c r="E124" s="29" t="s">
@@ -10482,7 +10487,7 @@
         <v>818</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="D127" s="29"/>
       <c r="E127" s="29" t="s">
@@ -10582,7 +10587,7 @@
         <v>819</v>
       </c>
       <c r="C131" s="31" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D131" s="29"/>
       <c r="E131" s="29" t="s">
@@ -10682,7 +10687,7 @@
         <v>820</v>
       </c>
       <c r="C135" s="31" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="D135" s="29"/>
       <c r="E135" s="29" t="s">
@@ -11569,7 +11574,7 @@
         <v>825</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="D170" s="29"/>
       <c r="E170" s="29" t="s">
@@ -11694,7 +11699,7 @@
         <v>826</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="D175" s="29"/>
       <c r="E175" s="29" t="s">
@@ -11721,7 +11726,7 @@
         <v>826</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D176" s="29"/>
       <c r="E176" s="29" t="s">
@@ -11846,7 +11851,7 @@
         <v>828</v>
       </c>
       <c r="C181" s="20" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="D181" s="29"/>
       <c r="E181" s="29" t="s">
@@ -11871,7 +11876,7 @@
         <v>828</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="D182" s="29"/>
       <c r="E182" s="29" t="s">
@@ -11921,7 +11926,7 @@
         <v>829</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="D184" s="29"/>
       <c r="E184" s="29" t="s">
@@ -11946,7 +11951,7 @@
         <v>829</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="D185" s="29"/>
       <c r="E185" s="29" t="s">
@@ -11973,7 +11978,7 @@
         <v>829</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="D186" s="29"/>
       <c r="E186" s="29" t="s">
@@ -11998,7 +12003,7 @@
         <v>829</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="D187" s="29"/>
       <c r="E187" s="29" t="s">
@@ -12025,7 +12030,7 @@
         <v>829</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="D188" s="29"/>
       <c r="E188" s="29" t="s">
@@ -12052,7 +12057,7 @@
         <v>829</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="D189" s="29"/>
       <c r="E189" s="29" t="s">
@@ -12079,7 +12084,7 @@
         <v>829</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D190" s="29"/>
       <c r="E190" s="29" t="s">
@@ -12106,7 +12111,7 @@
         <v>829</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="D191" s="29"/>
       <c r="E191" s="29" t="s">
@@ -12158,7 +12163,7 @@
         <v>829</v>
       </c>
       <c r="C193" s="31" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="D193" s="29"/>
       <c r="E193" s="29" t="s">
@@ -12210,7 +12215,7 @@
         <v>830</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="D195" s="29"/>
       <c r="E195" s="29" t="s">
@@ -12287,7 +12292,7 @@
         <v>831</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="D198" s="29"/>
       <c r="E198" s="29" t="s">
@@ -12364,7 +12369,7 @@
         <v>832</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D201" s="29"/>
       <c r="E201" s="29" t="s">
@@ -12389,7 +12394,7 @@
         <v>832</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="D202" s="29"/>
       <c r="E202" s="29" t="s">
@@ -12439,7 +12444,7 @@
         <v>833</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D204" s="29"/>
       <c r="E204" s="29" t="s">
@@ -12541,7 +12546,7 @@
         <v>834</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="D208" s="29"/>
       <c r="E208" s="29" t="s">
@@ -12620,7 +12625,7 @@
         <v>834</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="D211" s="29"/>
       <c r="E211" s="29" t="s">
@@ -12699,7 +12704,7 @@
         <v>834</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D214" s="29"/>
       <c r="E214" s="29" t="s">
@@ -12801,7 +12806,7 @@
         <v>835</v>
       </c>
       <c r="C218" s="31" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="D218" s="29"/>
       <c r="E218" s="29" t="s">
@@ -12982,7 +12987,7 @@
         <v>835</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D225" s="29"/>
       <c r="E225" s="29" t="s">
@@ -13413,7 +13418,7 @@
         <v>837</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="D242" s="29"/>
       <c r="E242" s="29" t="s">
@@ -13569,7 +13574,7 @@
         <v>837</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="D248" s="29"/>
       <c r="E248" s="29" t="s">
@@ -13698,7 +13703,7 @@
         <v>838</v>
       </c>
       <c r="C253" s="31" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="D253" s="29"/>
       <c r="E253" s="29" t="s">
@@ -13725,7 +13730,7 @@
         <v>838</v>
       </c>
       <c r="C254" s="31" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="D254" s="29"/>
       <c r="E254" s="29" t="s">
@@ -13769,7 +13774,7 @@
     </row>
     <row r="256" spans="1:9" ht="30">
       <c r="A256" s="22" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="B256" s="30" t="s">
         <v>838</v>
@@ -13800,7 +13805,7 @@
         <v>838</v>
       </c>
       <c r="C257" s="31" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D257" s="29"/>
       <c r="E257" s="29" t="s">
@@ -13844,7 +13849,7 @@
     </row>
     <row r="259" spans="1:9" ht="30">
       <c r="A259" s="22" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="B259" s="30" t="s">
         <v>838</v>
@@ -13875,7 +13880,7 @@
         <v>838</v>
       </c>
       <c r="C260" s="31" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D260" s="29"/>
       <c r="E260" s="29" t="s">
@@ -14025,7 +14030,7 @@
         <v>838</v>
       </c>
       <c r="C266" s="31" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="D266" s="29"/>
       <c r="E266" s="29" t="s">
@@ -14050,7 +14055,7 @@
         <v>838</v>
       </c>
       <c r="C267" s="31" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="D267" s="29"/>
       <c r="E267" s="29" t="s">
@@ -14383,7 +14388,7 @@
         <v>838</v>
       </c>
       <c r="C280" s="31" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D280" s="29"/>
       <c r="E280" s="29" t="s">
@@ -14410,7 +14415,7 @@
         <v>838</v>
       </c>
       <c r="C281" s="31" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="D281" s="29"/>
       <c r="E281" s="29" t="s">
@@ -14537,7 +14542,7 @@
         <v>838</v>
       </c>
       <c r="C286" s="31" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="D286" s="29"/>
       <c r="E286" s="29" t="s">
@@ -14564,7 +14569,7 @@
         <v>839</v>
       </c>
       <c r="C287" s="31" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D287" s="29"/>
       <c r="E287" s="29" t="s">
@@ -15039,13 +15044,13 @@
     </row>
     <row r="306" spans="1:9" ht="45">
       <c r="A306" s="22" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B306" s="24" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C306" s="20" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="D306" s="35"/>
       <c r="E306" s="35" t="s">
@@ -15061,18 +15066,18 @@
         <v>17</v>
       </c>
       <c r="I306" s="20" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="30">
       <c r="A307" s="22" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B307" s="24" t="s">
         <v>1551</v>
       </c>
-      <c r="B307" s="24" t="s">
-        <v>1552</v>
-      </c>
       <c r="C307" s="20" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D307" s="29"/>
       <c r="E307" s="29" t="s">
@@ -15091,13 +15096,13 @@
     </row>
     <row r="308" spans="1:9" ht="45">
       <c r="A308" s="22" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="B308" s="24" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C308" s="20" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="D308" s="22"/>
       <c r="E308" s="22" t="s">
@@ -15116,13 +15121,13 @@
     </row>
     <row r="309" spans="1:9" ht="30">
       <c r="A309" s="22" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B309" s="24" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="C309" s="20" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D309" s="29"/>
       <c r="E309" s="29" t="s">
@@ -15272,7 +15277,7 @@
         <v>840</v>
       </c>
       <c r="C315" s="31" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="D315" s="29"/>
       <c r="E315" s="29" t="s">
@@ -15322,7 +15327,7 @@
         <v>840</v>
       </c>
       <c r="C317" s="31" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="D317" s="29"/>
       <c r="E317" s="29" t="s">
@@ -15349,7 +15354,7 @@
         <v>841</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="D318" s="29"/>
       <c r="E318" s="29" t="s">
@@ -15376,7 +15381,7 @@
         <v>841</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D319" s="29"/>
       <c r="E319" s="29" t="s">
@@ -15549,7 +15554,7 @@
     </row>
     <row r="326" spans="1:9" ht="45">
       <c r="A326" s="22" t="s">
-        <v>1542</v>
+        <v>1879</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>841</v>
@@ -15571,7 +15576,7 @@
         <v>17</v>
       </c>
       <c r="I326" s="20" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="327" spans="1:9" ht="45">
@@ -15582,7 +15587,7 @@
         <v>841</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="D327" s="29"/>
       <c r="E327" s="29" t="s">
@@ -15598,7 +15603,7 @@
         <v>17</v>
       </c>
       <c r="I327" s="20" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="328" spans="1:9" ht="45">
@@ -15675,7 +15680,7 @@
         <v>20</v>
       </c>
       <c r="I330" s="31" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="331" spans="1:9" ht="45">
@@ -15702,7 +15707,7 @@
         <v>20</v>
       </c>
       <c r="I331" s="31" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="332" spans="1:9" ht="30">
@@ -15762,7 +15767,7 @@
       <c r="B334" s="30" t="s">
         <v>841</v>
       </c>
-      <c r="C334" s="31" t="s">
+      <c r="C334" s="20" t="s">
         <v>1124</v>
       </c>
       <c r="D334" s="29"/>
@@ -16088,7 +16093,7 @@
         <v>841</v>
       </c>
       <c r="C347" s="20" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="D347" s="29"/>
       <c r="E347" s="29" t="s">
@@ -16390,7 +16395,7 @@
         <v>843</v>
       </c>
       <c r="C359" s="31" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="D359" s="29"/>
       <c r="E359" s="29" t="s">
@@ -16417,7 +16422,7 @@
         <v>843</v>
       </c>
       <c r="C360" s="31" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="D360" s="29"/>
       <c r="E360" s="29" t="s">
@@ -16817,7 +16822,7 @@
         <v>844</v>
       </c>
       <c r="C376" s="31" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="D376" s="29"/>
       <c r="E376" s="29" t="s">
@@ -16842,7 +16847,7 @@
         <v>844</v>
       </c>
       <c r="C377" s="31" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="D377" s="29"/>
       <c r="E377" s="29" t="s">
@@ -16867,7 +16872,7 @@
         <v>844</v>
       </c>
       <c r="C378" s="31" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="D378" s="29"/>
       <c r="E378" s="29" t="s">
@@ -16942,7 +16947,7 @@
         <v>844</v>
       </c>
       <c r="C381" s="31" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D381" s="29"/>
       <c r="E381" s="29" t="s">
@@ -16992,7 +16997,7 @@
         <v>844</v>
       </c>
       <c r="C383" s="31" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D383" s="29"/>
       <c r="E383" s="29" t="s">
@@ -17017,7 +17022,7 @@
         <v>845</v>
       </c>
       <c r="C384" s="31" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D384" s="29"/>
       <c r="E384" s="29" t="s">
@@ -17171,7 +17176,7 @@
         <v>846</v>
       </c>
       <c r="C390" s="20" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="D390" s="29"/>
       <c r="E390" s="29" t="s">
@@ -17225,7 +17230,7 @@
         <v>846</v>
       </c>
       <c r="C392" s="20" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="D392" s="29"/>
       <c r="E392" s="29" t="s">
@@ -17475,7 +17480,7 @@
     </row>
     <row r="402" spans="1:9" ht="45">
       <c r="A402" s="22" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B402" s="30" t="s">
         <v>847</v>
@@ -17533,7 +17538,7 @@
         <v>849</v>
       </c>
       <c r="C404" s="20" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="D404" s="29"/>
       <c r="E404" s="29" t="s">
@@ -17610,7 +17615,7 @@
         <v>850</v>
       </c>
       <c r="C407" s="31" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D407" s="29"/>
       <c r="E407" s="29" t="s">
@@ -17912,7 +17917,7 @@
         <v>854</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="D419" s="29"/>
       <c r="E419" s="29" t="s">
@@ -17962,7 +17967,7 @@
         <v>855</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="D421" s="29"/>
       <c r="E421" s="29" t="s">
@@ -18014,7 +18019,7 @@
         <v>856</v>
       </c>
       <c r="C423" s="31" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="D423" s="29"/>
       <c r="E423" s="29" t="s">
@@ -18066,7 +18071,7 @@
         <v>856</v>
       </c>
       <c r="C425" s="31" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="D425" s="29"/>
       <c r="E425" s="29" t="s">
@@ -18091,7 +18096,7 @@
         <v>856</v>
       </c>
       <c r="C426" s="31" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D426" s="29"/>
       <c r="E426" s="29" t="s">
@@ -18116,7 +18121,7 @@
         <v>856</v>
       </c>
       <c r="C427" s="31" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="D427" s="29"/>
       <c r="E427" s="29" t="s">
@@ -18166,7 +18171,7 @@
         <v>857</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="D429" s="29"/>
       <c r="E429" s="29" t="s">
@@ -18184,7 +18189,7 @@
       <c r="I429" s="31"/>
     </row>
     <row r="430" spans="1:9" ht="30">
-      <c r="A430" s="29" t="s">
+      <c r="A430" s="22" t="s">
         <v>439</v>
       </c>
       <c r="B430" s="30" t="s">
@@ -18291,7 +18296,7 @@
         <v>859</v>
       </c>
       <c r="C434" s="31" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D434" s="29"/>
       <c r="E434" s="29" t="s">
@@ -18343,7 +18348,7 @@
         <v>859</v>
       </c>
       <c r="C436" s="31" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D436" s="29"/>
       <c r="E436" s="29" t="s">
@@ -18418,7 +18423,7 @@
         <v>860</v>
       </c>
       <c r="C439" s="20" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="D439" s="29"/>
       <c r="E439" s="29" t="s">
@@ -18468,7 +18473,7 @@
         <v>861</v>
       </c>
       <c r="C441" s="20" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="D441" s="29"/>
       <c r="E441" s="29" t="s">
@@ -18593,7 +18598,7 @@
         <v>861</v>
       </c>
       <c r="C446" s="31" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="D446" s="29"/>
       <c r="E446" s="29" t="s">
@@ -18743,7 +18748,7 @@
         <v>861</v>
       </c>
       <c r="C452" s="31" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="D452" s="29"/>
       <c r="E452" s="29" t="s">
@@ -18768,7 +18773,7 @@
         <v>861</v>
       </c>
       <c r="C453" s="31" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="D453" s="29"/>
       <c r="E453" s="29" t="s">
@@ -18868,7 +18873,7 @@
         <v>862</v>
       </c>
       <c r="C457" s="20" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="D457" s="29"/>
       <c r="E457" s="29" t="s">
@@ -18893,7 +18898,7 @@
         <v>862</v>
       </c>
       <c r="C458" s="31" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="D458" s="29"/>
       <c r="E458" s="29" t="s">
@@ -18918,7 +18923,7 @@
         <v>862</v>
       </c>
       <c r="C459" s="31" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="D459" s="29"/>
       <c r="E459" s="29" t="s">
@@ -18993,7 +18998,7 @@
         <v>863</v>
       </c>
       <c r="C462" s="20" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="D462" s="29"/>
       <c r="E462" s="29" t="s">
@@ -19018,7 +19023,7 @@
         <v>863</v>
       </c>
       <c r="C463" s="31" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="D463" s="29"/>
       <c r="E463" s="29" t="s">
@@ -19043,7 +19048,7 @@
         <v>863</v>
       </c>
       <c r="C464" s="31" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="D464" s="29"/>
       <c r="E464" s="29" t="s">
@@ -19137,13 +19142,13 @@
     </row>
     <row r="468" spans="1:9" ht="45">
       <c r="A468" s="22" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="B468" s="30" t="s">
         <v>865</v>
       </c>
       <c r="C468" s="20" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="D468" s="29"/>
       <c r="E468" s="29" t="s">
@@ -19159,7 +19164,7 @@
         <v>17</v>
       </c>
       <c r="I468" s="20" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -19189,13 +19194,13 @@
     </row>
     <row r="470" spans="1:9" ht="45">
       <c r="A470" s="22" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>866</v>
       </c>
       <c r="C470" s="20" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="D470" s="29"/>
       <c r="E470" s="29" t="s">
@@ -19211,7 +19216,7 @@
         <v>17</v>
       </c>
       <c r="I470" s="20" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -19247,7 +19252,7 @@
         <v>867</v>
       </c>
       <c r="C472" s="31" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="D472" s="29"/>
       <c r="E472" s="29" t="s">
@@ -19297,7 +19302,7 @@
         <v>868</v>
       </c>
       <c r="C474" s="20" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="D474" s="29"/>
       <c r="E474" s="29" t="s">
@@ -19324,7 +19329,7 @@
         <v>868</v>
       </c>
       <c r="C475" s="20" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="D475" s="29"/>
       <c r="E475" s="29" t="s">
@@ -19340,7 +19345,7 @@
         <v>17</v>
       </c>
       <c r="I475" s="20" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="30">
@@ -19351,7 +19356,7 @@
         <v>868</v>
       </c>
       <c r="C476" s="20" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="D476" s="29"/>
       <c r="E476" s="29" t="s">
@@ -19367,7 +19372,7 @@
         <v>17</v>
       </c>
       <c r="I476" s="20" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="30">
@@ -19428,7 +19433,7 @@
         <v>869</v>
       </c>
       <c r="C479" s="20" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="D479" s="29"/>
       <c r="E479" s="29" t="s">
@@ -19555,7 +19560,7 @@
         <v>870</v>
       </c>
       <c r="C484" s="20" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="D484" s="29"/>
       <c r="E484" s="29" t="s">
@@ -19605,7 +19610,7 @@
         <v>871</v>
       </c>
       <c r="C486" s="20" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="D486" s="29"/>
       <c r="E486" s="29" t="s">
@@ -19830,7 +19835,7 @@
         <v>33</v>
       </c>
       <c r="C495" s="31" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="D495" s="29"/>
       <c r="E495" s="29" t="s">
@@ -19855,7 +19860,7 @@
         <v>33</v>
       </c>
       <c r="C496" s="31" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D496" s="29"/>
       <c r="E496" s="29" t="s">
@@ -19880,7 +19885,7 @@
         <v>33</v>
       </c>
       <c r="C497" s="31" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D497" s="29"/>
       <c r="E497" s="29" t="s">
@@ -19932,7 +19937,7 @@
         <v>33</v>
       </c>
       <c r="C499" s="31" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D499" s="29"/>
       <c r="E499" s="29" t="s">
@@ -20007,7 +20012,7 @@
         <v>34</v>
       </c>
       <c r="C502" s="31" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D502" s="29"/>
       <c r="E502" s="29" t="s">
@@ -20032,7 +20037,7 @@
         <v>874</v>
       </c>
       <c r="C503" s="20" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="D503" s="29"/>
       <c r="E503" s="29" t="s">
@@ -20057,7 +20062,7 @@
         <v>874</v>
       </c>
       <c r="C504" s="31" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="D504" s="29"/>
       <c r="E504" s="29" t="s">
@@ -20082,7 +20087,7 @@
         <v>874</v>
       </c>
       <c r="C505" s="31" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D505" s="29"/>
       <c r="E505" s="29" t="s">
@@ -20232,7 +20237,7 @@
         <v>875</v>
       </c>
       <c r="C511" s="31" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D511" s="29"/>
       <c r="E511" s="29" t="s">
@@ -20282,7 +20287,7 @@
         <v>875</v>
       </c>
       <c r="C513" s="31" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D513" s="29"/>
       <c r="E513" s="29" t="s">
@@ -20307,7 +20312,7 @@
         <v>875</v>
       </c>
       <c r="C514" s="20" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="D514" s="29"/>
       <c r="E514" s="29" t="s">
@@ -20382,7 +20387,7 @@
         <v>875</v>
       </c>
       <c r="C517" s="31" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="D517" s="29"/>
       <c r="E517" s="29" t="s">
@@ -20407,7 +20412,7 @@
         <v>876</v>
       </c>
       <c r="C518" s="31" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="D518" s="29"/>
       <c r="E518" s="29" t="s">
@@ -20432,7 +20437,7 @@
         <v>877</v>
       </c>
       <c r="C519" s="31" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="D519" s="29"/>
       <c r="E519" s="29" t="s">
@@ -20457,7 +20462,7 @@
         <v>877</v>
       </c>
       <c r="C520" s="31" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="D520" s="29"/>
       <c r="E520" s="29" t="s">
@@ -20732,7 +20737,7 @@
         <v>878</v>
       </c>
       <c r="C531" s="31" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D531" s="29"/>
       <c r="E531" s="29" t="s">
@@ -20757,7 +20762,7 @@
         <v>878</v>
       </c>
       <c r="C532" s="31" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="D532" s="29"/>
       <c r="E532" s="29" t="s">
@@ -21182,7 +21187,7 @@
         <v>880</v>
       </c>
       <c r="C549" s="31" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D549" s="29"/>
       <c r="E549" s="29" t="s">
@@ -21207,7 +21212,7 @@
         <v>881</v>
       </c>
       <c r="C550" s="31" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D550" s="29"/>
       <c r="E550" s="29" t="s">
@@ -21257,7 +21262,7 @@
         <v>881</v>
       </c>
       <c r="C552" s="31" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="D552" s="29"/>
       <c r="E552" s="29" t="s">
@@ -21282,7 +21287,7 @@
         <v>881</v>
       </c>
       <c r="C553" s="31" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="D553" s="29"/>
       <c r="E553" s="29" t="s">
@@ -21457,7 +21462,7 @@
         <v>882</v>
       </c>
       <c r="C560" s="31" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D560" s="29"/>
       <c r="E560" s="29" t="s">
@@ -21482,7 +21487,7 @@
         <v>882</v>
       </c>
       <c r="C561" s="31" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="D561" s="29"/>
       <c r="E561" s="29" t="s">
@@ -21507,7 +21512,7 @@
         <v>882</v>
       </c>
       <c r="C562" s="31" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="D562" s="29"/>
       <c r="E562" s="29" t="s">
@@ -21707,7 +21712,7 @@
         <v>883</v>
       </c>
       <c r="C570" s="31" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="D570" s="29"/>
       <c r="E570" s="29" t="s">
@@ -21732,7 +21737,7 @@
         <v>883</v>
       </c>
       <c r="C571" s="31" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="D571" s="29"/>
       <c r="E571" s="29" t="s">
@@ -22132,7 +22137,7 @@
         <v>888</v>
       </c>
       <c r="C587" s="31" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D587" s="29"/>
       <c r="E587" s="29" t="s">
@@ -22157,7 +22162,7 @@
         <v>888</v>
       </c>
       <c r="C588" s="31" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="D588" s="29"/>
       <c r="E588" s="29" t="s">
@@ -22232,7 +22237,7 @@
         <v>888</v>
       </c>
       <c r="C591" s="31" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="D591" s="29"/>
       <c r="E591" s="29" t="s">
@@ -22384,7 +22389,7 @@
         <v>891</v>
       </c>
       <c r="C597" s="31" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="D597" s="29"/>
       <c r="E597" s="29" t="s">
@@ -22409,7 +22414,7 @@
         <v>891</v>
       </c>
       <c r="C598" s="31" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D598" s="29"/>
       <c r="E598" s="29" t="s">
@@ -22436,7 +22441,7 @@
         <v>891</v>
       </c>
       <c r="C599" s="31" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D599" s="29"/>
       <c r="E599" s="29" t="s">
@@ -22461,7 +22466,7 @@
         <v>891</v>
       </c>
       <c r="C600" s="31" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D600" s="29"/>
       <c r="E600" s="29" t="s">
@@ -22486,7 +22491,7 @@
         <v>891</v>
       </c>
       <c r="C601" s="31" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D601" s="29"/>
       <c r="E601" s="29" t="s">
@@ -22563,7 +22568,7 @@
         <v>893</v>
       </c>
       <c r="C604" s="31" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D604" s="29"/>
       <c r="E604" s="29" t="s">
@@ -22588,7 +22593,7 @@
         <v>893</v>
       </c>
       <c r="C605" s="31" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="D605" s="29"/>
       <c r="E605" s="29" t="s">
@@ -22613,7 +22618,7 @@
         <v>893</v>
       </c>
       <c r="C606" s="20" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="D606" s="29"/>
       <c r="E606" s="29" t="s">
@@ -22692,7 +22697,7 @@
         <v>893</v>
       </c>
       <c r="C609" s="31" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="D609" s="29"/>
       <c r="E609" s="29" t="s">
@@ -22717,7 +22722,7 @@
         <v>893</v>
       </c>
       <c r="C610" s="31" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D610" s="29"/>
       <c r="E610" s="29" t="s">
@@ -22742,7 +22747,7 @@
         <v>893</v>
       </c>
       <c r="C611" s="31" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D611" s="29"/>
       <c r="E611" s="29" t="s">
@@ -22767,7 +22772,7 @@
         <v>893</v>
       </c>
       <c r="C612" s="31" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D612" s="29"/>
       <c r="E612" s="29" t="s">
@@ -22792,7 +22797,7 @@
         <v>893</v>
       </c>
       <c r="C613" s="31" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="D613" s="29"/>
       <c r="E613" s="29" t="s">
@@ -22817,7 +22822,7 @@
         <v>893</v>
       </c>
       <c r="C614" s="31" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="D614" s="29"/>
       <c r="E614" s="29" t="s">
@@ -22842,7 +22847,7 @@
         <v>893</v>
       </c>
       <c r="C615" s="31" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D615" s="29"/>
       <c r="E615" s="29" t="s">
@@ -22867,7 +22872,7 @@
         <v>893</v>
       </c>
       <c r="C616" s="31" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D616" s="29"/>
       <c r="E616" s="29" t="s">
@@ -22894,7 +22899,7 @@
         <v>893</v>
       </c>
       <c r="C617" s="31" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D617" s="29"/>
       <c r="E617" s="29" t="s">
@@ -22921,7 +22926,7 @@
         <v>893</v>
       </c>
       <c r="C618" s="31" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D618" s="29"/>
       <c r="E618" s="29" t="s">
@@ -22948,7 +22953,7 @@
         <v>893</v>
       </c>
       <c r="C619" s="31" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="D619" s="29"/>
       <c r="E619" s="29" t="s">
@@ -22973,7 +22978,7 @@
         <v>893</v>
       </c>
       <c r="C620" s="31" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="D620" s="29"/>
       <c r="E620" s="29" t="s">
@@ -22991,14 +22996,14 @@
       <c r="I620" s="31"/>
     </row>
     <row r="621" spans="1:9" ht="75">
-      <c r="A621" s="29" t="s">
+      <c r="A621" s="22" t="s">
         <v>628</v>
       </c>
       <c r="B621" s="30" t="s">
         <v>893</v>
       </c>
-      <c r="C621" s="31" t="s">
-        <v>1725</v>
+      <c r="C621" s="20" t="s">
+        <v>1880</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="29" t="s">
@@ -23023,7 +23028,7 @@
         <v>893</v>
       </c>
       <c r="C622" s="31" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="D622" s="29"/>
       <c r="E622" s="29" t="s">
@@ -23039,7 +23044,7 @@
         <v>17</v>
       </c>
       <c r="I622" s="20" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="623" spans="1:9" ht="75">
@@ -23050,7 +23055,7 @@
         <v>893</v>
       </c>
       <c r="C623" s="31" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="D623" s="29"/>
       <c r="E623" s="29" t="s">
@@ -23075,7 +23080,7 @@
         <v>893</v>
       </c>
       <c r="C624" s="31" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="D624" s="29"/>
       <c r="E624" s="29" t="s">
@@ -23100,7 +23105,7 @@
         <v>893</v>
       </c>
       <c r="C625" s="31" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="D625" s="29"/>
       <c r="E625" s="29" t="s">
@@ -23127,7 +23132,7 @@
         <v>893</v>
       </c>
       <c r="C626" s="20" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="D626" s="29"/>
       <c r="E626" s="29" t="s">
@@ -23152,7 +23157,7 @@
         <v>893</v>
       </c>
       <c r="C627" s="31" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="D627" s="29"/>
       <c r="E627" s="29" t="s">
@@ -23177,7 +23182,7 @@
         <v>893</v>
       </c>
       <c r="C628" s="31" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="D628" s="29"/>
       <c r="E628" s="29" t="s">
@@ -23202,7 +23207,7 @@
         <v>893</v>
       </c>
       <c r="C629" s="31" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="D629" s="29"/>
       <c r="E629" s="29" t="s">
@@ -23227,7 +23232,7 @@
         <v>893</v>
       </c>
       <c r="C630" s="31" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="D630" s="29"/>
       <c r="E630" s="29" t="s">
@@ -23252,7 +23257,7 @@
         <v>893</v>
       </c>
       <c r="C631" s="31" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="D631" s="29"/>
       <c r="E631" s="29" t="s">
@@ -23277,7 +23282,7 @@
         <v>893</v>
       </c>
       <c r="C632" s="20" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="D632" s="29"/>
       <c r="E632" s="29" t="s">
@@ -23304,7 +23309,7 @@
         <v>893</v>
       </c>
       <c r="C633" s="31" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="D633" s="29"/>
       <c r="E633" s="29" t="s">
@@ -23329,7 +23334,7 @@
         <v>893</v>
       </c>
       <c r="C634" s="31" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="D634" s="29"/>
       <c r="E634" s="29" t="s">
@@ -23354,7 +23359,7 @@
         <v>893</v>
       </c>
       <c r="C635" s="31" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="D635" s="29"/>
       <c r="E635" s="29" t="s">
@@ -23379,7 +23384,7 @@
         <v>893</v>
       </c>
       <c r="C636" s="31" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="D636" s="29"/>
       <c r="E636" s="29" t="s">
@@ -23404,7 +23409,7 @@
         <v>893</v>
       </c>
       <c r="C637" s="31" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="D637" s="29"/>
       <c r="E637" s="29" t="s">
@@ -23429,7 +23434,7 @@
         <v>893</v>
       </c>
       <c r="C638" s="31" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="D638" s="29"/>
       <c r="E638" s="29" t="s">
@@ -23454,7 +23459,7 @@
         <v>893</v>
       </c>
       <c r="C639" s="31" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="D639" s="29"/>
       <c r="E639" s="29" t="s">
@@ -23479,7 +23484,7 @@
         <v>893</v>
       </c>
       <c r="C640" s="20" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="D640" s="29"/>
       <c r="E640" s="29" t="s">
@@ -23495,7 +23500,7 @@
         <v>17</v>
       </c>
       <c r="I640" s="20" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="641" spans="1:9" ht="60">
@@ -23506,7 +23511,7 @@
         <v>893</v>
       </c>
       <c r="C641" s="20" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="D641" s="29"/>
       <c r="E641" s="29" t="s">
@@ -23522,7 +23527,7 @@
         <v>17</v>
       </c>
       <c r="I641" s="20" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="642" spans="1:9" ht="60">
@@ -23533,7 +23538,7 @@
         <v>893</v>
       </c>
       <c r="C642" s="31" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D642" s="29"/>
       <c r="E642" s="29" t="s">
@@ -23558,7 +23563,7 @@
         <v>893</v>
       </c>
       <c r="C643" s="31" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="D643" s="29"/>
       <c r="E643" s="29" t="s">
@@ -23583,7 +23588,7 @@
         <v>893</v>
       </c>
       <c r="C644" s="31" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="D644" s="29"/>
       <c r="E644" s="29" t="s">
@@ -23608,7 +23613,7 @@
         <v>893</v>
       </c>
       <c r="C645" s="20" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="D645" s="29"/>
       <c r="E645" s="29" t="s">
@@ -23633,7 +23638,7 @@
         <v>893</v>
       </c>
       <c r="C646" s="31" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="D646" s="29"/>
       <c r="E646" s="29" t="s">
@@ -23660,7 +23665,7 @@
         <v>893</v>
       </c>
       <c r="C647" s="31" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="D647" s="29"/>
       <c r="E647" s="29" t="s">
@@ -23679,7 +23684,7 @@
     </row>
     <row r="648" spans="1:9" ht="45">
       <c r="A648" s="22" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="B648" s="30" t="s">
         <v>894</v>
@@ -23735,7 +23740,7 @@
         <v>894</v>
       </c>
       <c r="C650" s="20" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="D650" s="29"/>
       <c r="E650" s="29" t="s">
@@ -23762,7 +23767,7 @@
         <v>894</v>
       </c>
       <c r="C651" s="20" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="D651" s="29"/>
       <c r="E651" s="29" t="s">
@@ -23778,7 +23783,7 @@
         <v>17</v>
       </c>
       <c r="I651" s="20" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="45">
@@ -23789,7 +23794,7 @@
         <v>894</v>
       </c>
       <c r="C652" s="31" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="D652" s="29"/>
       <c r="E652" s="29" t="s">
@@ -23814,7 +23819,7 @@
         <v>894</v>
       </c>
       <c r="C653" s="31" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="D653" s="29"/>
       <c r="E653" s="29" t="s">
@@ -23839,7 +23844,7 @@
         <v>895</v>
       </c>
       <c r="C654" s="31" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D654" s="29"/>
       <c r="E654" s="29" t="s">
@@ -23864,7 +23869,7 @@
         <v>895</v>
       </c>
       <c r="C655" s="31" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D655" s="29"/>
       <c r="E655" s="29" t="s">
@@ -23889,7 +23894,7 @@
         <v>896</v>
       </c>
       <c r="C656" s="31" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="D656" s="29"/>
       <c r="E656" s="29" t="s">
@@ -24014,7 +24019,7 @@
         <v>896</v>
       </c>
       <c r="C661" s="31" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="D661" s="29"/>
       <c r="E661" s="29" t="s">
@@ -24041,7 +24046,7 @@
         <v>896</v>
       </c>
       <c r="C662" s="20" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="D662" s="29"/>
       <c r="E662" s="29" t="s">
@@ -24068,7 +24073,7 @@
         <v>896</v>
       </c>
       <c r="C663" s="31" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="D663" s="29"/>
       <c r="E663" s="29" t="s">
@@ -24093,7 +24098,7 @@
         <v>897</v>
       </c>
       <c r="C664" s="31" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D664" s="29"/>
       <c r="E664" s="29" t="s">
@@ -24120,7 +24125,7 @@
         <v>897</v>
       </c>
       <c r="C665" s="20" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D665" s="29"/>
       <c r="E665" s="29" t="s">
@@ -24136,7 +24141,7 @@
         <v>17</v>
       </c>
       <c r="I665" s="20" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="30">
@@ -24222,7 +24227,7 @@
         <v>897</v>
       </c>
       <c r="C669" s="31" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="D669" s="29"/>
       <c r="E669" s="29" t="s">
@@ -24328,7 +24333,7 @@
         <v>898</v>
       </c>
       <c r="C673" s="31" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D673" s="29"/>
       <c r="E673" s="29" t="s">
@@ -24353,7 +24358,7 @@
         <v>898</v>
       </c>
       <c r="C674" s="31" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D674" s="29"/>
       <c r="E674" s="29" t="s">
@@ -24378,7 +24383,7 @@
         <v>898</v>
       </c>
       <c r="C675" s="31" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D675" s="29"/>
       <c r="E675" s="29" t="s">
@@ -24403,7 +24408,7 @@
         <v>898</v>
       </c>
       <c r="C676" s="20" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="D676" s="29"/>
       <c r="E676" s="29" t="s">
@@ -24428,7 +24433,7 @@
         <v>898</v>
       </c>
       <c r="C677" s="31" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D677" s="29"/>
       <c r="E677" s="29" t="s">
@@ -24453,7 +24458,7 @@
         <v>898</v>
       </c>
       <c r="C678" s="20" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="D678" s="29"/>
       <c r="E678" s="29" t="s">
@@ -24478,7 +24483,7 @@
         <v>898</v>
       </c>
       <c r="C679" s="31" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D679" s="29"/>
       <c r="E679" s="29" t="s">
@@ -24505,7 +24510,7 @@
         <v>898</v>
       </c>
       <c r="C680" s="31" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D680" s="29"/>
       <c r="E680" s="29" t="s">
@@ -24521,7 +24526,7 @@
         <v>17</v>
       </c>
       <c r="I680" s="20" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="681" spans="1:9" ht="30">
@@ -24548,7 +24553,7 @@
         <v>17</v>
       </c>
       <c r="I681" s="20" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="682" spans="1:9" ht="45">
@@ -24559,7 +24564,7 @@
         <v>898</v>
       </c>
       <c r="C682" s="31" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D682" s="29"/>
       <c r="E682" s="29" t="s">
@@ -24711,7 +24716,7 @@
         <v>898</v>
       </c>
       <c r="C688" s="31" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D688" s="29"/>
       <c r="E688" s="29" t="s">
@@ -24840,7 +24845,7 @@
         <v>899</v>
       </c>
       <c r="C693" s="31" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D693" s="29"/>
       <c r="E693" s="29" t="s">
@@ -24915,7 +24920,7 @@
         <v>899</v>
       </c>
       <c r="C696" s="20" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="D696" s="29"/>
       <c r="E696" s="29" t="s">
@@ -25227,7 +25232,7 @@
         <v>901</v>
       </c>
       <c r="C708" s="31" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D708" s="22" t="s">
         <v>1416</v>
@@ -25285,7 +25290,7 @@
         <v>901</v>
       </c>
       <c r="C710" s="31" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="D710" s="22" t="s">
         <v>1418</v>
@@ -25314,7 +25319,7 @@
         <v>901</v>
       </c>
       <c r="C711" s="31" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="D711" s="22" t="s">
         <v>1419</v>
@@ -25343,7 +25348,7 @@
         <v>901</v>
       </c>
       <c r="C712" s="31" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="D712" s="22" t="s">
         <v>1420</v>
@@ -25372,7 +25377,7 @@
         <v>901</v>
       </c>
       <c r="C713" s="31" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D713" s="22" t="s">
         <v>1421</v>
@@ -25401,7 +25406,7 @@
         <v>901</v>
       </c>
       <c r="C714" s="31" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D714" s="22" t="s">
         <v>1422</v>
@@ -25430,7 +25435,7 @@
         <v>901</v>
       </c>
       <c r="C715" s="20" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="D715" s="22" t="s">
         <v>1423</v>
@@ -25459,7 +25464,7 @@
         <v>901</v>
       </c>
       <c r="C716" s="31" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D716" s="22" t="s">
         <v>1424</v>
@@ -25480,16 +25485,16 @@
     </row>
     <row r="717" spans="1:9" ht="45">
       <c r="A717" s="22" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
       <c r="B717" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C717" s="20" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="D717" s="22" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="E717" s="29" t="s">
         <v>22</v>
@@ -25568,7 +25573,7 @@
       <c r="B720" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C720" s="31" t="s">
+      <c r="C720" s="20" t="s">
         <v>1351</v>
       </c>
       <c r="D720" s="22" t="s">
@@ -25592,16 +25597,16 @@
     </row>
     <row r="721" spans="1:9" ht="60">
       <c r="A721" s="22" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B721" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C721" s="20" t="s">
-        <v>1676</v>
+        <v>1884</v>
       </c>
       <c r="D721" s="22" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="E721" s="29" t="s">
         <v>22</v>
@@ -25615,46 +25620,48 @@
       <c r="H721" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="I721" s="37"/>
-    </row>
-    <row r="722" spans="1:9" ht="60">
-      <c r="A722" s="29" t="s">
-        <v>726</v>
-      </c>
-      <c r="B722" s="30" t="s">
+      <c r="I721" s="31" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9" ht="45">
+      <c r="A722" s="22" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B722" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="C722" s="31" t="s">
-        <v>1352</v>
-      </c>
-      <c r="D722" s="29" t="s">
-        <v>1428</v>
-      </c>
-      <c r="E722" s="29" t="s">
+      <c r="C722" s="20" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D722" s="22" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E722" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="F722" s="29" t="s">
+      <c r="F722" s="35" t="s">
         <v>6</v>
       </c>
       <c r="G722" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H722" s="29" t="s">
+      <c r="H722" s="35" t="s">
         <v>20</v>
       </c>
       <c r="I722" s="31" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="723" spans="1:9" ht="30">
+    <row r="723" spans="1:9" ht="60">
       <c r="A723" s="29" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B723" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C723" s="31" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D723" s="29" t="s">
         <v>1428</v>
@@ -25669,22 +25676,24 @@
         <v>15</v>
       </c>
       <c r="H723" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I723" s="31"/>
-    </row>
-    <row r="724" spans="1:9" ht="45">
+        <v>20</v>
+      </c>
+      <c r="I723" s="31" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9" ht="30">
       <c r="A724" s="29" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B724" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C724" s="31" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D724" s="22" t="s">
-        <v>1429</v>
+        <v>1353</v>
+      </c>
+      <c r="D724" s="29" t="s">
+        <v>1428</v>
       </c>
       <c r="E724" s="29" t="s">
         <v>22</v>
@@ -25696,75 +25705,73 @@
         <v>15</v>
       </c>
       <c r="H724" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I724" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I724" s="31"/>
     </row>
     <row r="725" spans="1:9" ht="45">
       <c r="A725" s="29" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B725" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C725" s="31" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D725" s="29"/>
+        <v>1354</v>
+      </c>
+      <c r="D725" s="22" t="s">
+        <v>1429</v>
+      </c>
       <c r="E725" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F725" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G725" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H725" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I725" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I725" s="31" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="726" spans="1:9" ht="45">
       <c r="A726" s="29" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B726" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C726" s="31" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D726" s="29" t="s">
-        <v>1428</v>
-      </c>
+        <v>1355</v>
+      </c>
+      <c r="D726" s="29"/>
       <c r="E726" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F726" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G726" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H726" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I726" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I726" s="31"/>
     </row>
     <row r="727" spans="1:9" ht="45">
       <c r="A727" s="29" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B727" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C727" s="31" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D727" s="29" t="s">
         <v>1428</v>
@@ -25787,13 +25794,13 @@
     </row>
     <row r="728" spans="1:9" ht="45">
       <c r="A728" s="29" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B728" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C728" s="31" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D728" s="29" t="s">
         <v>1428</v>
@@ -25808,26 +25815,30 @@
         <v>15</v>
       </c>
       <c r="H728" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I728" s="31"/>
-    </row>
-    <row r="729" spans="1:9" ht="300">
+        <v>20</v>
+      </c>
+      <c r="I728" s="31" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9" ht="45">
       <c r="A729" s="29" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B729" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C729" s="20" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D729" s="29"/>
+      <c r="C729" s="31" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D729" s="29" t="s">
+        <v>1428</v>
+      </c>
       <c r="E729" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F729" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G729" s="29" t="s">
         <v>15</v>
@@ -25837,44 +25848,40 @@
       </c>
       <c r="I729" s="31"/>
     </row>
-    <row r="730" spans="1:9" ht="45">
+    <row r="730" spans="1:9" ht="300">
       <c r="A730" s="29" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B730" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C730" s="20" t="s">
-        <v>1359</v>
-      </c>
-      <c r="D730" s="29" t="s">
-        <v>1430</v>
-      </c>
+        <v>1800</v>
+      </c>
+      <c r="D730" s="29"/>
       <c r="E730" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F730" s="29" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G730" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H730" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I730" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I730" s="31"/>
     </row>
     <row r="731" spans="1:9" ht="45">
       <c r="A731" s="29" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B731" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C731" s="31" t="s">
-        <v>1360</v>
+      <c r="C731" s="20" t="s">
+        <v>1359</v>
       </c>
       <c r="D731" s="29" t="s">
         <v>1430</v>
@@ -25897,69 +25904,69 @@
     </row>
     <row r="732" spans="1:9" ht="45">
       <c r="A732" s="29" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B732" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C732" s="20" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D732" s="29"/>
+      <c r="C732" s="31" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D732" s="29" t="s">
+        <v>1430</v>
+      </c>
       <c r="E732" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F732" s="29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G732" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H732" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I732" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I732" s="31" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="733" spans="1:9" ht="45">
       <c r="A733" s="29" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B733" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C733" s="31" t="s">
-        <v>1361</v>
-      </c>
-      <c r="D733" s="29" t="s">
-        <v>1431</v>
-      </c>
+      <c r="C733" s="20" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D733" s="29"/>
       <c r="E733" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F733" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G733" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H733" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I733" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I733" s="31"/>
     </row>
     <row r="734" spans="1:9" ht="45">
       <c r="A734" s="29" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B734" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C734" s="31" t="s">
-        <v>1362</v>
-      </c>
-      <c r="D734" s="22" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D734" s="29" t="s">
         <v>1431</v>
       </c>
       <c r="E734" s="29" t="s">
@@ -25979,46 +25986,46 @@
       </c>
     </row>
     <row r="735" spans="1:9" ht="45">
-      <c r="A735" s="22" t="s">
-        <v>1807</v>
-      </c>
-      <c r="B735" s="24" t="s">
+      <c r="A735" s="29" t="s">
+        <v>738</v>
+      </c>
+      <c r="B735" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C735" s="20" t="s">
-        <v>1811</v>
+      <c r="C735" s="31" t="s">
+        <v>1362</v>
       </c>
       <c r="D735" s="22" t="s">
-        <v>1806</v>
+        <v>1431</v>
       </c>
       <c r="E735" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F735" s="35" t="s">
+      <c r="F735" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G735" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H735" s="35" t="s">
+      <c r="G735" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H735" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I735" s="31" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="736" spans="1:9" ht="45">
+    <row r="736" spans="1:9" ht="60">
       <c r="A736" s="22" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="B736" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C736" s="20" t="s">
-        <v>1810</v>
+        <v>1877</v>
       </c>
       <c r="D736" s="22" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="E736" s="29" t="s">
         <v>22</v>
@@ -26036,18 +26043,18 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="737" spans="1:9" ht="60">
+    <row r="737" spans="1:9" ht="45">
       <c r="A737" s="22" t="s">
-        <v>1813</v>
+        <v>1805</v>
       </c>
       <c r="B737" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C737" s="20" t="s">
-        <v>1816</v>
+        <v>1878</v>
       </c>
       <c r="D737" s="22" t="s">
-        <v>1815</v>
+        <v>1803</v>
       </c>
       <c r="E737" s="29" t="s">
         <v>22</v>
@@ -26059,24 +26066,22 @@
         <v>15</v>
       </c>
       <c r="H737" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I737" s="31" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="738" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I737" s="31"/>
+    </row>
+    <row r="738" spans="1:9" ht="60">
       <c r="A738" s="22" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
       <c r="B738" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C738" s="20" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
       <c r="D738" s="22" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
       <c r="E738" s="29" t="s">
         <v>22</v>
@@ -26095,45 +26100,45 @@
       </c>
     </row>
     <row r="739" spans="1:9" ht="45">
-      <c r="A739" s="29" t="s">
-        <v>740</v>
-      </c>
-      <c r="B739" s="30" t="s">
+      <c r="A739" s="22" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B739" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C739" s="20" t="s">
-        <v>1819</v>
-      </c>
-      <c r="D739" s="29" t="s">
-        <v>1427</v>
+        <v>1812</v>
+      </c>
+      <c r="D739" s="22" t="s">
+        <v>1810</v>
       </c>
       <c r="E739" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F739" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G739" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H739" s="29" t="s">
-        <v>21</v>
+      <c r="F739" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G739" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H739" s="35" t="s">
+        <v>20</v>
       </c>
       <c r="I739" s="31" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="740" spans="1:9" ht="60">
-      <c r="A740" s="22" t="s">
-        <v>1549</v>
+    <row r="740" spans="1:9" ht="45">
+      <c r="A740" s="29" t="s">
+        <v>740</v>
       </c>
       <c r="B740" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C740" s="20" t="s">
-        <v>1601</v>
-      </c>
-      <c r="D740" s="22" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D740" s="29" t="s">
         <v>1427</v>
       </c>
       <c r="E740" s="29" t="s">
@@ -26152,18 +26157,18 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="741" spans="1:9" ht="45">
-      <c r="A741" s="29" t="s">
-        <v>739</v>
+    <row r="741" spans="1:9" ht="60">
+      <c r="A741" s="22" t="s">
+        <v>1548</v>
       </c>
       <c r="B741" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C741" s="20" t="s">
-        <v>1820</v>
+        <v>1600</v>
       </c>
       <c r="D741" s="22" t="s">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="E741" s="29" t="s">
         <v>22</v>
@@ -26182,16 +26187,16 @@
       </c>
     </row>
     <row r="742" spans="1:9" ht="45">
-      <c r="A742" s="22" t="s">
-        <v>1548</v>
+      <c r="A742" s="29" t="s">
+        <v>739</v>
       </c>
       <c r="B742" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C742" s="20" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D742" s="29" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D742" s="22" t="s">
         <v>1432</v>
       </c>
       <c r="E742" s="29" t="s">
@@ -26210,18 +26215,18 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="743" spans="1:9" ht="60">
-      <c r="A743" s="29" t="s">
-        <v>741</v>
+    <row r="743" spans="1:9" ht="45">
+      <c r="A743" s="22" t="s">
+        <v>1547</v>
       </c>
       <c r="B743" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C743" s="20" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="D743" s="29" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E743" s="29" t="s">
         <v>22</v>
@@ -26233,19 +26238,21 @@
         <v>15</v>
       </c>
       <c r="H743" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I743" s="31"/>
-    </row>
-    <row r="744" spans="1:9" ht="45">
+        <v>21</v>
+      </c>
+      <c r="I743" s="31" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" ht="60">
       <c r="A744" s="29" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B744" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C744" s="31" t="s">
-        <v>1363</v>
+      <c r="C744" s="20" t="s">
+        <v>1817</v>
       </c>
       <c r="D744" s="29" t="s">
         <v>1433</v>
@@ -26260,53 +26267,51 @@
         <v>15</v>
       </c>
       <c r="H744" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I744" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I744" s="31"/>
     </row>
     <row r="745" spans="1:9" ht="45">
-      <c r="A745" s="35" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B745" s="24" t="s">
+      <c r="A745" s="29" t="s">
+        <v>742</v>
+      </c>
+      <c r="B745" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C745" s="20" t="s">
-        <v>1834</v>
-      </c>
-      <c r="D745" s="22" t="s">
-        <v>1824</v>
+      <c r="C745" s="31" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D745" s="29" t="s">
+        <v>1433</v>
       </c>
       <c r="E745" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F745" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G745" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="H745" s="35" t="s">
+      <c r="F745" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G745" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H745" s="29" t="s">
         <v>20</v>
       </c>
       <c r="I745" s="31" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="746" spans="1:9" ht="60">
-      <c r="A746" s="22" t="s">
-        <v>1826</v>
+    <row r="746" spans="1:9" ht="45">
+      <c r="A746" s="35" t="s">
+        <v>1820</v>
       </c>
       <c r="B746" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C746" s="20" t="s">
-        <v>1827</v>
+        <v>1829</v>
       </c>
       <c r="D746" s="22" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
       <c r="E746" s="29" t="s">
         <v>22</v>
@@ -26324,18 +26329,18 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="747" spans="1:9" ht="45">
+    <row r="747" spans="1:9" ht="60">
       <c r="A747" s="22" t="s">
-        <v>1831</v>
+        <v>1821</v>
       </c>
       <c r="B747" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C747" s="20" t="s">
-        <v>1833</v>
+        <v>1822</v>
       </c>
       <c r="D747" s="22" t="s">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="E747" s="29" t="s">
         <v>22</v>
@@ -26355,16 +26360,16 @@
     </row>
     <row r="748" spans="1:9" ht="45">
       <c r="A748" s="22" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
       <c r="B748" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C748" s="20" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="D748" s="22" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="E748" s="29" t="s">
         <v>22</v>
@@ -26383,17 +26388,17 @@
       </c>
     </row>
     <row r="749" spans="1:9" ht="45">
-      <c r="A749" s="35" t="s">
-        <v>1840</v>
+      <c r="A749" s="22" t="s">
+        <v>1827</v>
       </c>
       <c r="B749" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C749" s="20" t="s">
-        <v>1842</v>
+        <v>1830</v>
       </c>
       <c r="D749" s="22" t="s">
-        <v>1839</v>
+        <v>1825</v>
       </c>
       <c r="E749" s="29" t="s">
         <v>22</v>
@@ -26412,17 +26417,17 @@
       </c>
     </row>
     <row r="750" spans="1:9" ht="45">
-      <c r="A750" s="22" t="s">
-        <v>1841</v>
+      <c r="A750" s="35" t="s">
+        <v>1835</v>
       </c>
       <c r="B750" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C750" s="20" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="D750" s="22" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="E750" s="29" t="s">
         <v>22</v>
@@ -26442,16 +26447,16 @@
     </row>
     <row r="751" spans="1:9" ht="45">
       <c r="A751" s="22" t="s">
-        <v>1846</v>
+        <v>1836</v>
       </c>
       <c r="B751" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C751" s="20" t="s">
-        <v>1847</v>
+        <v>1838</v>
       </c>
       <c r="D751" s="22" t="s">
-        <v>1845</v>
+        <v>1834</v>
       </c>
       <c r="E751" s="29" t="s">
         <v>22</v>
@@ -26469,49 +26474,51 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="752" spans="1:9" ht="135">
-      <c r="A752" s="29" t="s">
-        <v>743</v>
-      </c>
-      <c r="B752" s="30" t="s">
+    <row r="752" spans="1:9" ht="45">
+      <c r="A752" s="22" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B752" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C752" s="20" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D752" s="29"/>
+        <v>1842</v>
+      </c>
+      <c r="D752" s="22" t="s">
+        <v>1840</v>
+      </c>
       <c r="E752" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F752" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G752" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H752" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I752" s="31"/>
-    </row>
-    <row r="753" spans="1:9" ht="30">
+      <c r="F752" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="G752" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H752" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="I752" s="31" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" ht="135">
       <c r="A753" s="29" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B753" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C753" s="20" t="s">
-        <v>1850</v>
-      </c>
-      <c r="D753" s="29" t="s">
-        <v>1434</v>
-      </c>
+        <v>1844</v>
+      </c>
+      <c r="D753" s="29"/>
       <c r="E753" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F753" s="29" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G753" s="29" t="s">
         <v>15</v>
@@ -26521,15 +26528,15 @@
       </c>
       <c r="I753" s="31"/>
     </row>
-    <row r="754" spans="1:9" ht="60">
+    <row r="754" spans="1:9" ht="30">
       <c r="A754" s="29" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B754" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C754" s="20" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
       <c r="D754" s="29" t="s">
         <v>1434</v>
@@ -26550,13 +26557,13 @@
     </row>
     <row r="755" spans="1:9" ht="60">
       <c r="A755" s="29" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B755" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C755" s="20" t="s">
-        <v>1852</v>
+        <v>1846</v>
       </c>
       <c r="D755" s="29" t="s">
         <v>1434</v>
@@ -26571,357 +26578,355 @@
         <v>15</v>
       </c>
       <c r="H755" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I755" s="31" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="756" spans="1:9" ht="45">
+        <v>18</v>
+      </c>
+      <c r="I755" s="31"/>
+    </row>
+    <row r="756" spans="1:9" ht="60">
       <c r="A756" s="29" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B756" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C756" s="20" t="s">
-        <v>1853</v>
-      </c>
-      <c r="D756" s="29"/>
+        <v>1847</v>
+      </c>
+      <c r="D756" s="29" t="s">
+        <v>1434</v>
+      </c>
       <c r="E756" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F756" s="29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G756" s="29" t="s">
         <v>15</v>
       </c>
       <c r="H756" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I756" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I756" s="31" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="757" spans="1:9" ht="45">
       <c r="A757" s="29" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B757" s="30" t="s">
         <v>901</v>
       </c>
       <c r="C757" s="20" t="s">
-        <v>1854</v>
-      </c>
-      <c r="D757" s="29" t="s">
-        <v>1435</v>
-      </c>
+        <v>1848</v>
+      </c>
+      <c r="D757" s="29"/>
       <c r="E757" s="29" t="s">
         <v>22</v>
       </c>
       <c r="F757" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G757" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H757" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I757" s="31"/>
+    </row>
+    <row r="758" spans="1:9" ht="45">
+      <c r="A758" s="29" t="s">
+        <v>748</v>
+      </c>
+      <c r="B758" s="30" t="s">
+        <v>901</v>
+      </c>
+      <c r="C758" s="20" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D758" s="29" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E758" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F758" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G757" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H757" s="29" t="s">
+      <c r="G758" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H758" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I757" s="31" t="s">
+      <c r="I758" s="31" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="758" spans="1:9" s="41" customFormat="1" ht="47.25">
-      <c r="A758" s="38" t="s">
+    <row r="759" spans="1:9" s="40" customFormat="1" ht="47.25">
+      <c r="A759" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="B758" s="39" t="s">
+      <c r="B759" s="38" t="s">
         <v>901</v>
       </c>
-      <c r="C758" s="40" t="s">
+      <c r="C759" s="39" t="s">
         <v>1364</v>
       </c>
-      <c r="D758" s="38" t="s">
+      <c r="D759" s="37" t="s">
         <v>1435</v>
       </c>
-      <c r="E758" s="38" t="s">
+      <c r="E759" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F758" s="38" t="s">
+      <c r="F759" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G758" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H758" s="38" t="s">
+      <c r="G759" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H759" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I758" s="40" t="s">
+      <c r="I759" s="39" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="759" spans="1:9" s="41" customFormat="1" ht="63">
-      <c r="A759" s="38" t="s">
+    <row r="760" spans="1:9" s="40" customFormat="1" ht="63">
+      <c r="A760" s="37" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B760" s="38" t="s">
+        <v>901</v>
+      </c>
+      <c r="C760" s="39" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D760" s="37" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E760" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F760" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G760" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H760" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I760" s="39" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="761" spans="1:9" s="40" customFormat="1" ht="47.25">
+      <c r="A761" s="37" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B761" s="38" t="s">
+        <v>901</v>
+      </c>
+      <c r="C761" s="39" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D761" s="37" t="s">
+        <v>1851</v>
+      </c>
+      <c r="E761" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F761" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G761" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H761" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I761" s="39" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="762" spans="1:9" ht="47.25">
+      <c r="A762" s="35" t="s">
         <v>1857</v>
-      </c>
-      <c r="B759" s="39" t="s">
-        <v>901</v>
-      </c>
-      <c r="C759" s="40" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D759" s="38" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E759" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F759" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G759" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H759" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I759" s="40" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="760" spans="1:9" s="41" customFormat="1" ht="47.25">
-      <c r="A760" s="38" t="s">
-        <v>1858</v>
-      </c>
-      <c r="B760" s="39" t="s">
-        <v>901</v>
-      </c>
-      <c r="C760" s="40" t="s">
-        <v>1869</v>
-      </c>
-      <c r="D760" s="38" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E760" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F760" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G760" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H760" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I760" s="40" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="761" spans="1:9" ht="47.25">
-      <c r="A761" s="35" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B761" s="24" t="s">
-        <v>901</v>
-      </c>
-      <c r="C761" s="40" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D761" s="22" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E761" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F761" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G761" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H761" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I761" s="40" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="762" spans="1:9" ht="47.25">
-      <c r="A762" s="22" t="s">
-        <v>1863</v>
       </c>
       <c r="B762" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="C762" s="40" t="s">
-        <v>1871</v>
+      <c r="C762" s="39" t="s">
+        <v>1865</v>
       </c>
       <c r="D762" s="22" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E762" s="38" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E762" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F762" s="38" t="s">
+      <c r="F762" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G762" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H762" s="38" t="s">
+      <c r="G762" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H762" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I762" s="40" t="s">
+      <c r="I762" s="39" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="763" spans="1:9" ht="47.25">
       <c r="A763" s="22" t="s">
-        <v>1866</v>
+        <v>1858</v>
       </c>
       <c r="B763" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="C763" s="40" t="s">
-        <v>1872</v>
+      <c r="C763" s="39" t="s">
+        <v>1866</v>
       </c>
       <c r="D763" s="22" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E763" s="38" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E763" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F763" s="38" t="s">
+      <c r="F763" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G763" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H763" s="38" t="s">
+      <c r="G763" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H763" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I763" s="40" t="s">
+      <c r="I763" s="39" t="s">
         <v>1511</v>
       </c>
     </row>
     <row r="764" spans="1:9" ht="47.25">
       <c r="A764" s="22" t="s">
-        <v>1867</v>
+        <v>1861</v>
       </c>
       <c r="B764" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="C764" s="40" t="s">
-        <v>1873</v>
+      <c r="C764" s="39" t="s">
+        <v>1867</v>
       </c>
       <c r="D764" s="22" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E764" s="38" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E764" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F764" s="38" t="s">
+      <c r="F764" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G764" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H764" s="38" t="s">
+      <c r="G764" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H764" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I764" s="40" t="s">
+      <c r="I764" s="39" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="765" spans="1:9" ht="94.5">
+    <row r="765" spans="1:9" ht="47.25">
       <c r="A765" s="22" t="s">
-        <v>1874</v>
+        <v>1862</v>
       </c>
       <c r="B765" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="C765" s="40" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D765" s="22"/>
-      <c r="E765" s="38" t="s">
+      <c r="C765" s="39" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D765" s="22" t="s">
+        <v>1860</v>
+      </c>
+      <c r="E765" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F765" s="38" t="s">
+      <c r="F765" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G765" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H765" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="I765" s="40"/>
-    </row>
-    <row r="766" spans="1:9" ht="47.25">
+      <c r="G765" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H765" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="I765" s="39" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="766" spans="1:9" ht="94.5">
       <c r="A766" s="22" t="s">
-        <v>1876</v>
+        <v>1869</v>
       </c>
       <c r="B766" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="C766" s="40" t="s">
-        <v>1877</v>
+      <c r="C766" s="39" t="s">
+        <v>1870</v>
       </c>
       <c r="D766" s="22"/>
-      <c r="E766" s="38" t="s">
+      <c r="E766" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F766" s="38" t="s">
+      <c r="F766" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="G766" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H766" s="38" t="s">
+      <c r="G766" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H766" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I766" s="40"/>
-    </row>
-    <row r="767" spans="1:9" ht="60">
-      <c r="A767" s="29" t="s">
+      <c r="I766" s="39"/>
+    </row>
+    <row r="767" spans="1:9" ht="47.25">
+      <c r="A767" s="22" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B767" s="24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C767" s="39" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D767" s="22"/>
+      <c r="E767" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F767" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="G767" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H767" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I767" s="39"/>
+    </row>
+    <row r="768" spans="1:9" ht="60">
+      <c r="A768" s="29" t="s">
         <v>750</v>
-      </c>
-      <c r="B767" s="30" t="s">
-        <v>901</v>
-      </c>
-      <c r="C767" s="20" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D767" s="29" t="s">
-        <v>1436</v>
-      </c>
-      <c r="E767" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F767" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G767" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H767" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I767" s="31" t="s">
-        <v>1511</v>
-      </c>
-    </row>
-    <row r="768" spans="1:9" ht="45">
-      <c r="A768" s="29" t="s">
-        <v>751</v>
       </c>
       <c r="B768" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C768" s="31" t="s">
-        <v>1365</v>
+      <c r="C768" s="20" t="s">
+        <v>1850</v>
       </c>
       <c r="D768" s="29" t="s">
         <v>1436</v>
@@ -26944,15 +26949,17 @@
     </row>
     <row r="769" spans="1:9" ht="45">
       <c r="A769" s="29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B769" s="30" t="s">
         <v>901</v>
       </c>
-      <c r="C769" s="20" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D769" s="29"/>
+      <c r="C769" s="31" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D769" s="29" t="s">
+        <v>1436</v>
+      </c>
       <c r="E769" s="29" t="s">
         <v>22</v>
       </c>
@@ -26963,28 +26970,28 @@
         <v>15</v>
       </c>
       <c r="H769" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I769" s="31" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="770" spans="1:9">
+    <row r="770" spans="1:9" ht="45">
       <c r="A770" s="29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B770" s="30" t="s">
-        <v>805</v>
-      </c>
-      <c r="C770" s="31" t="s">
-        <v>1367</v>
+        <v>901</v>
+      </c>
+      <c r="C770" s="20" t="s">
+        <v>1366</v>
       </c>
       <c r="D770" s="29"/>
       <c r="E770" s="29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F770" s="29" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G770" s="29" t="s">
         <v>15</v>
@@ -26992,17 +26999,19 @@
       <c r="H770" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I770" s="31"/>
+      <c r="I770" s="31" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="771" spans="1:9">
       <c r="A771" s="29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B771" s="30" t="s">
         <v>805</v>
       </c>
       <c r="C771" s="31" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="D771" s="29"/>
       <c r="E771" s="29" t="s">
@@ -27019,15 +27028,15 @@
       </c>
       <c r="I771" s="31"/>
     </row>
-    <row r="772" spans="1:9" ht="30">
+    <row r="772" spans="1:9">
       <c r="A772" s="29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B772" s="30" t="s">
         <v>805</v>
       </c>
       <c r="C772" s="31" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="D772" s="29"/>
       <c r="E772" s="29" t="s">
@@ -27044,15 +27053,15 @@
       </c>
       <c r="I772" s="31"/>
     </row>
-    <row r="773" spans="1:9">
+    <row r="773" spans="1:9" ht="30">
       <c r="A773" s="29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B773" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C773" s="31" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="D773" s="29"/>
       <c r="E773" s="29" t="s">
@@ -27071,13 +27080,13 @@
     </row>
     <row r="774" spans="1:9">
       <c r="A774" s="29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B774" s="30" t="s">
         <v>806</v>
       </c>
       <c r="C774" s="31" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="D774" s="29"/>
       <c r="E774" s="29" t="s">
@@ -27094,15 +27103,15 @@
       </c>
       <c r="I774" s="31"/>
     </row>
-    <row r="775" spans="1:9" ht="30">
+    <row r="775" spans="1:9">
       <c r="A775" s="29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B775" s="30" t="s">
         <v>806</v>
       </c>
       <c r="C775" s="31" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="D775" s="29"/>
       <c r="E775" s="29" t="s">
@@ -27119,15 +27128,15 @@
       </c>
       <c r="I775" s="31"/>
     </row>
-    <row r="776" spans="1:9">
+    <row r="776" spans="1:9" ht="30">
       <c r="A776" s="29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B776" s="30" t="s">
-        <v>32</v>
+        <v>806</v>
       </c>
       <c r="C776" s="31" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="D776" s="29"/>
       <c r="E776" s="29" t="s">
@@ -27144,15 +27153,15 @@
       </c>
       <c r="I776" s="31"/>
     </row>
-    <row r="777" spans="1:9" ht="45">
+    <row r="777" spans="1:9">
       <c r="A777" s="29" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B777" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C777" s="31" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="D777" s="29"/>
       <c r="E777" s="29" t="s">
@@ -27169,15 +27178,15 @@
       </c>
       <c r="I777" s="31"/>
     </row>
-    <row r="778" spans="1:9" ht="30">
+    <row r="778" spans="1:9" ht="45">
       <c r="A778" s="29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B778" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C778" s="31" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="D778" s="29"/>
       <c r="E778" s="29" t="s">
@@ -27196,13 +27205,13 @@
     </row>
     <row r="779" spans="1:9" ht="30">
       <c r="A779" s="29" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B779" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C779" s="31" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D779" s="29"/>
       <c r="E779" s="29" t="s">
@@ -27219,15 +27228,15 @@
       </c>
       <c r="I779" s="31"/>
     </row>
-    <row r="780" spans="1:9">
+    <row r="780" spans="1:9" ht="30">
       <c r="A780" s="29" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B780" s="30" t="s">
         <v>32</v>
       </c>
       <c r="C780" s="31" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="D780" s="29"/>
       <c r="E780" s="29" t="s">
@@ -27246,13 +27255,13 @@
     </row>
     <row r="781" spans="1:9">
       <c r="A781" s="29" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B781" s="30" t="s">
-        <v>836</v>
+        <v>32</v>
       </c>
       <c r="C781" s="31" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D781" s="29"/>
       <c r="E781" s="29" t="s">
@@ -27269,15 +27278,15 @@
       </c>
       <c r="I781" s="31"/>
     </row>
-    <row r="782" spans="1:9" ht="45">
+    <row r="782" spans="1:9">
       <c r="A782" s="29" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B782" s="30" t="s">
         <v>836</v>
       </c>
       <c r="C782" s="31" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="D782" s="29"/>
       <c r="E782" s="29" t="s">
@@ -27294,15 +27303,15 @@
       </c>
       <c r="I782" s="31"/>
     </row>
-    <row r="783" spans="1:9" ht="30">
+    <row r="783" spans="1:9" ht="45">
       <c r="A783" s="29" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B783" s="30" t="s">
         <v>836</v>
       </c>
       <c r="C783" s="31" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="D783" s="29"/>
       <c r="E783" s="29" t="s">
@@ -27319,15 +27328,15 @@
       </c>
       <c r="I783" s="31"/>
     </row>
-    <row r="784" spans="1:9" ht="45">
+    <row r="784" spans="1:9" ht="30">
       <c r="A784" s="29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B784" s="30" t="s">
         <v>836</v>
       </c>
       <c r="C784" s="31" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="D784" s="29"/>
       <c r="E784" s="29" t="s">
@@ -27344,15 +27353,15 @@
       </c>
       <c r="I784" s="31"/>
     </row>
-    <row r="785" spans="1:9" ht="30">
+    <row r="785" spans="1:9" ht="45">
       <c r="A785" s="29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B785" s="30" t="s">
         <v>836</v>
       </c>
       <c r="C785" s="31" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="D785" s="29"/>
       <c r="E785" s="29" t="s">
@@ -27369,15 +27378,15 @@
       </c>
       <c r="I785" s="31"/>
     </row>
-    <row r="786" spans="1:9">
+    <row r="786" spans="1:9" ht="30">
       <c r="A786" s="29" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B786" s="30" t="s">
         <v>836</v>
       </c>
       <c r="C786" s="31" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="D786" s="29"/>
       <c r="E786" s="29" t="s">
@@ -27394,15 +27403,15 @@
       </c>
       <c r="I786" s="31"/>
     </row>
-    <row r="787" spans="1:9" ht="45">
+    <row r="787" spans="1:9">
       <c r="A787" s="29" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B787" s="30" t="s">
         <v>836</v>
       </c>
       <c r="C787" s="31" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="D787" s="29"/>
       <c r="E787" s="29" t="s">
@@ -27419,15 +27428,15 @@
       </c>
       <c r="I787" s="31"/>
     </row>
-    <row r="788" spans="1:9" ht="30">
+    <row r="788" spans="1:9" ht="45">
       <c r="A788" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B788" s="30" t="s">
         <v>836</v>
       </c>
       <c r="C788" s="31" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="D788" s="29"/>
       <c r="E788" s="29" t="s">
@@ -27444,15 +27453,15 @@
       </c>
       <c r="I788" s="31"/>
     </row>
-    <row r="789" spans="1:9">
+    <row r="789" spans="1:9" ht="30">
       <c r="A789" s="29" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B789" s="30" t="s">
         <v>836</v>
       </c>
       <c r="C789" s="31" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="D789" s="29"/>
       <c r="E789" s="29" t="s">
@@ -27471,13 +27480,13 @@
     </row>
     <row r="790" spans="1:9">
       <c r="A790" s="29" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B790" s="30" t="s">
-        <v>902</v>
+        <v>836</v>
       </c>
       <c r="C790" s="31" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D790" s="29"/>
       <c r="E790" s="29" t="s">
@@ -27494,15 +27503,15 @@
       </c>
       <c r="I790" s="31"/>
     </row>
-    <row r="791" spans="1:9" ht="30">
+    <row r="791" spans="1:9">
       <c r="A791" s="29" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B791" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C791" s="31" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="D791" s="29"/>
       <c r="E791" s="29" t="s">
@@ -27519,15 +27528,15 @@
       </c>
       <c r="I791" s="31"/>
     </row>
-    <row r="792" spans="1:9">
+    <row r="792" spans="1:9" ht="30">
       <c r="A792" s="29" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B792" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C792" s="31" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="D792" s="29"/>
       <c r="E792" s="29" t="s">
@@ -27546,13 +27555,13 @@
     </row>
     <row r="793" spans="1:9">
       <c r="A793" s="29" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B793" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C793" s="31" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="D793" s="29"/>
       <c r="E793" s="29" t="s">
@@ -27569,15 +27578,15 @@
       </c>
       <c r="I793" s="31"/>
     </row>
-    <row r="794" spans="1:9" ht="45">
+    <row r="794" spans="1:9">
       <c r="A794" s="29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B794" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C794" s="31" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="D794" s="29"/>
       <c r="E794" s="29" t="s">
@@ -27594,15 +27603,15 @@
       </c>
       <c r="I794" s="31"/>
     </row>
-    <row r="795" spans="1:9" ht="30">
+    <row r="795" spans="1:9" ht="45">
       <c r="A795" s="29" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B795" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C795" s="31" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="D795" s="29"/>
       <c r="E795" s="29" t="s">
@@ -27619,15 +27628,15 @@
       </c>
       <c r="I795" s="31"/>
     </row>
-    <row r="796" spans="1:9" ht="60">
+    <row r="796" spans="1:9" ht="30">
       <c r="A796" s="29" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B796" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C796" s="31" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="D796" s="29"/>
       <c r="E796" s="29" t="s">
@@ -27644,15 +27653,15 @@
       </c>
       <c r="I796" s="31"/>
     </row>
-    <row r="797" spans="1:9" ht="45">
+    <row r="797" spans="1:9" ht="60">
       <c r="A797" s="29" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B797" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C797" s="31" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="D797" s="29"/>
       <c r="E797" s="29" t="s">
@@ -27669,15 +27678,15 @@
       </c>
       <c r="I797" s="31"/>
     </row>
-    <row r="798" spans="1:9" ht="30">
+    <row r="798" spans="1:9" ht="45">
       <c r="A798" s="29" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B798" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C798" s="31" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="D798" s="29"/>
       <c r="E798" s="29" t="s">
@@ -27694,15 +27703,15 @@
       </c>
       <c r="I798" s="31"/>
     </row>
-    <row r="799" spans="1:9" ht="45">
+    <row r="799" spans="1:9" ht="30">
       <c r="A799" s="29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B799" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C799" s="31" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D799" s="29"/>
       <c r="E799" s="29" t="s">
@@ -27721,13 +27730,13 @@
     </row>
     <row r="800" spans="1:9" ht="45">
       <c r="A800" s="29" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B800" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C800" s="31" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D800" s="29"/>
       <c r="E800" s="29" t="s">
@@ -27744,15 +27753,15 @@
       </c>
       <c r="I800" s="31"/>
     </row>
-    <row r="801" spans="1:9" ht="30">
+    <row r="801" spans="1:9" ht="45">
       <c r="A801" s="29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B801" s="30" t="s">
         <v>902</v>
       </c>
       <c r="C801" s="31" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D801" s="29"/>
       <c r="E801" s="29" t="s">
@@ -27771,13 +27780,13 @@
     </row>
     <row r="802" spans="1:9" ht="30">
       <c r="A802" s="29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B802" s="30" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C802" s="31" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D802" s="29"/>
       <c r="E802" s="29" t="s">
@@ -27790,19 +27799,19 @@
         <v>15</v>
       </c>
       <c r="H802" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I802" s="31"/>
     </row>
     <row r="803" spans="1:9" ht="30">
       <c r="A803" s="29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B803" s="30" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C803" s="31" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D803" s="29"/>
       <c r="E803" s="29" t="s">
@@ -27815,19 +27824,19 @@
         <v>15</v>
       </c>
       <c r="H803" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I803" s="31"/>
     </row>
     <row r="804" spans="1:9" ht="30">
       <c r="A804" s="29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B804" s="30" t="s">
         <v>904</v>
       </c>
       <c r="C804" s="31" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D804" s="29"/>
       <c r="E804" s="29" t="s">
@@ -27846,13 +27855,13 @@
     </row>
     <row r="805" spans="1:9" ht="30">
       <c r="A805" s="29" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B805" s="30" t="s">
         <v>904</v>
       </c>
       <c r="C805" s="31" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D805" s="29"/>
       <c r="E805" s="29" t="s">
@@ -27871,13 +27880,13 @@
     </row>
     <row r="806" spans="1:9" ht="30">
       <c r="A806" s="29" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B806" s="30" t="s">
         <v>904</v>
       </c>
       <c r="C806" s="31" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D806" s="29"/>
       <c r="E806" s="29" t="s">
@@ -27896,13 +27905,13 @@
     </row>
     <row r="807" spans="1:9" ht="30">
       <c r="A807" s="29" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B807" s="30" t="s">
         <v>904</v>
       </c>
       <c r="C807" s="31" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="D807" s="29"/>
       <c r="E807" s="29" t="s">
@@ -27921,13 +27930,13 @@
     </row>
     <row r="808" spans="1:9" ht="30">
       <c r="A808" s="29" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B808" s="30" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C808" s="31" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="D808" s="29"/>
       <c r="E808" s="29" t="s">
@@ -27946,13 +27955,13 @@
     </row>
     <row r="809" spans="1:9" ht="30">
       <c r="A809" s="29" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B809" s="30" t="s">
         <v>905</v>
       </c>
       <c r="C809" s="31" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="D809" s="29"/>
       <c r="E809" s="29" t="s">
@@ -27971,13 +27980,13 @@
     </row>
     <row r="810" spans="1:9" ht="30">
       <c r="A810" s="29" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B810" s="30" t="s">
         <v>905</v>
       </c>
       <c r="C810" s="31" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="D810" s="29"/>
       <c r="E810" s="29" t="s">
@@ -27994,15 +28003,15 @@
       </c>
       <c r="I810" s="31"/>
     </row>
-    <row r="811" spans="1:9" ht="45">
+    <row r="811" spans="1:9" ht="30">
       <c r="A811" s="29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B811" s="30" t="s">
         <v>905</v>
       </c>
       <c r="C811" s="31" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D811" s="29"/>
       <c r="E811" s="29" t="s">
@@ -28021,13 +28030,13 @@
     </row>
     <row r="812" spans="1:9" ht="45">
       <c r="A812" s="29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B812" s="30" t="s">
         <v>905</v>
       </c>
       <c r="C812" s="31" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="D812" s="29"/>
       <c r="E812" s="29" t="s">
@@ -28046,13 +28055,13 @@
     </row>
     <row r="813" spans="1:9" ht="45">
       <c r="A813" s="29" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B813" s="30" t="s">
         <v>905</v>
       </c>
       <c r="C813" s="31" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="D813" s="29"/>
       <c r="E813" s="29" t="s">
@@ -28071,13 +28080,13 @@
     </row>
     <row r="814" spans="1:9" ht="45">
       <c r="A814" s="29" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B814" s="30" t="s">
         <v>905</v>
       </c>
       <c r="C814" s="31" t="s">
-        <v>1750</v>
+        <v>1409</v>
       </c>
       <c r="D814" s="29"/>
       <c r="E814" s="29" t="s">
@@ -28094,15 +28103,15 @@
       </c>
       <c r="I814" s="31"/>
     </row>
-    <row r="815" spans="1:9" ht="30">
+    <row r="815" spans="1:9" ht="45">
       <c r="A815" s="29" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B815" s="30" t="s">
         <v>905</v>
       </c>
       <c r="C815" s="31" t="s">
-        <v>1410</v>
+        <v>1747</v>
       </c>
       <c r="D815" s="29"/>
       <c r="E815" s="29" t="s">
@@ -28119,15 +28128,15 @@
       </c>
       <c r="I815" s="31"/>
     </row>
-    <row r="816" spans="1:9" ht="45">
+    <row r="816" spans="1:9" ht="30">
       <c r="A816" s="29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B816" s="30" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C816" s="31" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="D816" s="29"/>
       <c r="E816" s="29" t="s">
@@ -28142,59 +28151,79 @@
       <c r="H816" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="I816" s="20"/>
-    </row>
-    <row r="817" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A817" s="32" t="s">
+      <c r="I816" s="31"/>
+    </row>
+    <row r="817" spans="1:9" ht="45">
+      <c r="A817" s="29" t="s">
+        <v>799</v>
+      </c>
+      <c r="B817" s="30" t="s">
+        <v>906</v>
+      </c>
+      <c r="C817" s="31" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D817" s="29"/>
+      <c r="E817" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F817" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G817" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H817" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I817" s="20"/>
+    </row>
+    <row r="818" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A818" s="32" t="s">
         <v>1530</v>
       </c>
-      <c r="B817" s="33" t="s">
+      <c r="B818" s="33" t="s">
         <v>1531</v>
       </c>
-      <c r="C817" s="34" t="s">
+      <c r="C818" s="34" t="s">
         <v>1532</v>
       </c>
-      <c r="D817" s="32"/>
-      <c r="E817" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F817" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G817" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H817" s="32" t="s">
+      <c r="D818" s="32"/>
+      <c r="E818" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F818" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G818" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H818" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I817" s="31"/>
-    </row>
-    <row r="818" spans="1:9">
-      <c r="A818" s="29"/>
-      <c r="B818" s="30"/>
-      <c r="C818" s="31"/>
-      <c r="D818" s="29"/>
-      <c r="E818" s="29"/>
-      <c r="F818" s="29"/>
-      <c r="G818" s="29"/>
-      <c r="H818" s="29"/>
       <c r="I818" s="31"/>
     </row>
     <row r="819" spans="1:9">
-      <c r="A819" s="3"/>
-      <c r="B819" s="10"/>
+      <c r="A819" s="29"/>
+      <c r="B819" s="30"/>
+      <c r="C819" s="31"/>
+      <c r="D819" s="29"/>
+      <c r="E819" s="29"/>
+      <c r="F819" s="29"/>
+      <c r="G819" s="29"/>
+      <c r="H819" s="29"/>
+      <c r="I819" s="31"/>
     </row>
     <row r="820" spans="1:9">
       <c r="A820" s="3"/>
       <c r="B820" s="10"/>
     </row>
+    <row r="821" spans="1:9">
+      <c r="A821" s="3"/>
+      <c r="B821" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28202,245 +28231,250 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A818:I818 I770:I818 A240:I816">
-    <cfRule type="expression" dxfId="76" priority="1099">
+  <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
+    <cfRule type="expression" dxfId="57" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1100">
+    <cfRule type="expression" dxfId="56" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1107">
+    <cfRule type="expression" dxfId="55" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A818:I818 I770:I818 A240:I816">
-    <cfRule type="expression" dxfId="73" priority="1053">
+  <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
+    <cfRule type="expression" dxfId="54" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1054">
+    <cfRule type="expression" dxfId="53" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1055">
+    <cfRule type="expression" dxfId="52" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F233 F235:F238 F818 F240:F816">
-    <cfRule type="expression" dxfId="70" priority="1059">
+  <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
+    <cfRule type="expression" dxfId="51" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1060">
+    <cfRule type="expression" dxfId="50" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="68" priority="1050">
+    <cfRule type="expression" dxfId="49" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1051">
+    <cfRule type="expression" dxfId="48" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1052">
+    <cfRule type="expression" dxfId="47" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="65" priority="1047">
+    <cfRule type="expression" dxfId="46" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1048">
+    <cfRule type="expression" dxfId="45" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1049">
+    <cfRule type="expression" dxfId="44" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="62" priority="1044">
+    <cfRule type="expression" dxfId="43" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="1045">
+    <cfRule type="expression" dxfId="42" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="1046">
+    <cfRule type="expression" dxfId="41" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="59" priority="1039">
+    <cfRule type="expression" dxfId="40" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1040">
+    <cfRule type="expression" dxfId="39" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1041">
+    <cfRule type="expression" dxfId="38" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="56" priority="1042">
+    <cfRule type="expression" dxfId="37" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1043">
+    <cfRule type="expression" dxfId="36" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="54" priority="1036">
+    <cfRule type="expression" dxfId="35" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1037">
+    <cfRule type="expression" dxfId="34" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1038">
+    <cfRule type="expression" dxfId="33" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="51" priority="1031">
+    <cfRule type="expression" dxfId="32" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1032">
+    <cfRule type="expression" dxfId="31" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1033">
+    <cfRule type="expression" dxfId="30" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="48" priority="1034">
+    <cfRule type="expression" dxfId="29" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1035">
+    <cfRule type="expression" dxfId="28" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B817:H817">
-    <cfRule type="expression" dxfId="46" priority="1028">
+  <conditionalFormatting sqref="B818:H818">
+    <cfRule type="expression" dxfId="27" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1029">
+    <cfRule type="expression" dxfId="26" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1030">
+    <cfRule type="expression" dxfId="25" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B817:H817">
-    <cfRule type="expression" dxfId="43" priority="1023">
+  <conditionalFormatting sqref="B818:H818">
+    <cfRule type="expression" dxfId="24" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1024">
+    <cfRule type="expression" dxfId="23" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1025">
+    <cfRule type="expression" dxfId="22" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F817">
-    <cfRule type="expression" dxfId="40" priority="1026">
-      <formula>NOT(VLOOKUP(F817,$A$12:$C$15,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F818">
+    <cfRule type="expression" dxfId="21" priority="1026">
+      <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1027">
-      <formula>(VLOOKUP(F817,$A$12:$C$15,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="20" priority="1027">
+      <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F817">
-    <cfRule type="expression" dxfId="38" priority="1021">
-      <formula>NOT(VLOOKUP(F817,$A$13:$C$16,2,FALSE)="In")</formula>
+  <conditionalFormatting sqref="F818">
+    <cfRule type="expression" dxfId="19" priority="1021">
+      <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1022">
-      <formula>(VLOOKUP(F817,$A$13:$C$16,2,FALSE)="In")</formula>
+    <cfRule type="expression" dxfId="18" priority="1022">
+      <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B817">
-    <cfRule type="expression" dxfId="36" priority="1018">
+  <conditionalFormatting sqref="B818">
+    <cfRule type="expression" dxfId="17" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1019">
+    <cfRule type="expression" dxfId="16" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1020">
+    <cfRule type="expression" dxfId="15" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B817">
-    <cfRule type="expression" dxfId="33" priority="1015">
+  <conditionalFormatting sqref="B818">
+    <cfRule type="expression" dxfId="14" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1016">
+    <cfRule type="expression" dxfId="13" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1017">
+    <cfRule type="expression" dxfId="12" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C817">
-    <cfRule type="expression" dxfId="30" priority="1012">
+  <conditionalFormatting sqref="C818">
+    <cfRule type="expression" dxfId="11" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1013">
+    <cfRule type="expression" dxfId="10" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1014">
+    <cfRule type="expression" dxfId="9" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C817">
-    <cfRule type="expression" dxfId="27" priority="1009">
+  <conditionalFormatting sqref="C818">
+    <cfRule type="expression" dxfId="8" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1010">
+    <cfRule type="expression" dxfId="7" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1011">
+    <cfRule type="expression" dxfId="6" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A817">
-    <cfRule type="expression" dxfId="24" priority="1006">
+  <conditionalFormatting sqref="A818">
+    <cfRule type="expression" dxfId="5" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="1007">
+    <cfRule type="expression" dxfId="4" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1008">
+    <cfRule type="expression" dxfId="3" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A817">
-    <cfRule type="expression" dxfId="21" priority="1003">
+  <conditionalFormatting sqref="A818">
+    <cfRule type="expression" dxfId="2" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1004">
+    <cfRule type="expression" dxfId="1" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="1005">
+    <cfRule type="expression" dxfId="0" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F818 F20:F816">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F819 F20:F817">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E818">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E819">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G818">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G819">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
       <formula1>"In, Out"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H233 H235:H238 H818 H240:H816">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H233 H235:H238 H819 H240:H817">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H234 H239 H817">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H234 H239 H818">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F817">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F818">
       <formula1>$A$14:$A$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -28450,7 +28484,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B766:B820 B751:B765 B717:B750 B19:B716 C3" numberStoredAsText="1"/>
+    <ignoredError sqref="B722:B821 C3 B19:B721" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -5753,9 +5753,6 @@
     <t>[In Appendix A: Product Behavior] Implementation does set this value [Reserved (1 byte)] to 0x01. [&lt;9&gt; Section 2.2.5.1.2.4.1: Exchange 2003 and Exchange 2007 set this value to 0x01.]</t>
   </si>
   <si>
-    <t>[[In Appendix A: Product Behavior] Implementation does set this value [Reserved (1 byte)] to 0x00. [&lt;9&gt; Section 2.2.5.1.2.4.1: Exchange 2010 and Exchange 2013 set this value to 0x00.]</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does perform a hard delete, as described in [MS-OXCFOLD], but this is not required for the protocol. [&lt;10&gt; Section 2.2.5.1.2.7: Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, and Exchange 2016 perform a hard delete, as described in [MS-OXCFOLD], but this is not required for the protocol.]</t>
   </si>
   <si>
@@ -5934,12 +5931,15 @@
   </si>
   <si>
     <t>Verified by derived requirement: MS-OXORULE_R5741.</t>
+  </si>
+  <si>
+    <t>[[In Appendix A: Product Behavior] Implementation does set this value [Reserved (1 byte)] to 0x00. [&lt;9&gt; Section 2.2.5.1.2.4.1: Exchange 2010, Exchange 2013 and Exchange 2016 set this value to 0x00.]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -6263,6 +6263,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6286,21 +6301,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7174,7 +7174,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7207,26 +7207,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7259,23 +7242,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7455,7 +7421,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L820"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A736" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C742" sqref="C742"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -7509,127 +7477,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7642,12 +7610,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7660,12 +7628,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7678,12 +7646,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7696,60 +7664,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -19137,7 +19105,7 @@
     </row>
     <row r="468" spans="1:9" ht="45">
       <c r="A468" s="22" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="B468" s="30" t="s">
         <v>865</v>
@@ -19159,7 +19127,7 @@
         <v>17</v>
       </c>
       <c r="I468" s="20" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -19189,7 +19157,7 @@
     </row>
     <row r="470" spans="1:9" ht="45">
       <c r="A470" s="22" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>866</v>
@@ -19211,7 +19179,7 @@
         <v>17</v>
       </c>
       <c r="I470" s="20" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -19340,7 +19308,7 @@
         <v>17</v>
       </c>
       <c r="I475" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="30">
@@ -19367,7 +19335,7 @@
         <v>17</v>
       </c>
       <c r="I476" s="20" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="30">
@@ -23495,7 +23463,7 @@
         <v>17</v>
       </c>
       <c r="I640" s="20" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="641" spans="1:9" ht="60">
@@ -23522,7 +23490,7 @@
         <v>17</v>
       </c>
       <c r="I641" s="20" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="642" spans="1:9" ht="60">
@@ -23778,7 +23746,7 @@
         <v>17</v>
       </c>
       <c r="I651" s="20" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="45">
@@ -24136,7 +24104,7 @@
         <v>17</v>
       </c>
       <c r="I665" s="20" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="30">
@@ -24521,7 +24489,7 @@
         <v>17</v>
       </c>
       <c r="I680" s="20" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="681" spans="1:9" ht="30">
@@ -24548,7 +24516,7 @@
         <v>17</v>
       </c>
       <c r="I681" s="20" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="682" spans="1:9" ht="45">
@@ -25480,16 +25448,16 @@
     </row>
     <row r="717" spans="1:9" ht="45">
       <c r="A717" s="22" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B717" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C717" s="20" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D717" s="22" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="E717" s="29" t="s">
         <v>22</v>
@@ -26189,7 +26157,7 @@
         <v>901</v>
       </c>
       <c r="C742" s="20" t="s">
-        <v>1821</v>
+        <v>1881</v>
       </c>
       <c r="D742" s="29" t="s">
         <v>1432</v>
@@ -26218,7 +26186,7 @@
         <v>901</v>
       </c>
       <c r="C743" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D743" s="29" t="s">
         <v>1433</v>
@@ -26268,16 +26236,16 @@
     </row>
     <row r="745" spans="1:9" ht="45">
       <c r="A745" s="35" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B745" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C745" s="20" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D745" s="22" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E745" s="29" t="s">
         <v>22</v>
@@ -26297,16 +26265,16 @@
     </row>
     <row r="746" spans="1:9" ht="60">
       <c r="A746" s="22" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B746" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C746" s="20" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="D746" s="22" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="E746" s="29" t="s">
         <v>22</v>
@@ -26326,16 +26294,16 @@
     </row>
     <row r="747" spans="1:9" ht="45">
       <c r="A747" s="22" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="B747" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C747" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="D747" s="22" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E747" s="29" t="s">
         <v>22</v>
@@ -26355,16 +26323,16 @@
     </row>
     <row r="748" spans="1:9" ht="45">
       <c r="A748" s="22" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="B748" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C748" s="20" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="D748" s="22" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="E748" s="29" t="s">
         <v>22</v>
@@ -26384,16 +26352,16 @@
     </row>
     <row r="749" spans="1:9" ht="45">
       <c r="A749" s="35" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B749" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C749" s="20" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D749" s="22" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E749" s="29" t="s">
         <v>22</v>
@@ -26413,16 +26381,16 @@
     </row>
     <row r="750" spans="1:9" ht="45">
       <c r="A750" s="22" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B750" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C750" s="20" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D750" s="22" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E750" s="29" t="s">
         <v>22</v>
@@ -26442,16 +26410,16 @@
     </row>
     <row r="751" spans="1:9" ht="45">
       <c r="A751" s="22" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B751" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C751" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D751" s="22" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="E751" s="29" t="s">
         <v>22</v>
@@ -26477,7 +26445,7 @@
         <v>901</v>
       </c>
       <c r="C752" s="20" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D752" s="29"/>
       <c r="E752" s="29" t="s">
@@ -26502,7 +26470,7 @@
         <v>901</v>
       </c>
       <c r="C753" s="20" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D753" s="29" t="s">
         <v>1434</v>
@@ -26529,7 +26497,7 @@
         <v>901</v>
       </c>
       <c r="C754" s="20" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="D754" s="29" t="s">
         <v>1434</v>
@@ -26556,7 +26524,7 @@
         <v>901</v>
       </c>
       <c r="C755" s="20" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="D755" s="29" t="s">
         <v>1434</v>
@@ -26585,7 +26553,7 @@
         <v>901</v>
       </c>
       <c r="C756" s="20" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="D756" s="29"/>
       <c r="E756" s="29" t="s">
@@ -26610,7 +26578,7 @@
         <v>901</v>
       </c>
       <c r="C757" s="20" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="D757" s="29" t="s">
         <v>1435</v>
@@ -26662,16 +26630,16 @@
     </row>
     <row r="759" spans="1:9" s="41" customFormat="1" ht="63">
       <c r="A759" s="38" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B759" s="39" t="s">
         <v>901</v>
       </c>
       <c r="C759" s="40" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D759" s="38" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E759" s="38" t="s">
         <v>22</v>
@@ -26691,16 +26659,16 @@
     </row>
     <row r="760" spans="1:9" s="41" customFormat="1" ht="47.25">
       <c r="A760" s="38" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B760" s="39" t="s">
         <v>901</v>
       </c>
       <c r="C760" s="40" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D760" s="38" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E760" s="38" t="s">
         <v>22</v>
@@ -26720,16 +26688,16 @@
     </row>
     <row r="761" spans="1:9" ht="47.25">
       <c r="A761" s="35" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B761" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C761" s="40" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D761" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E761" s="38" t="s">
         <v>22</v>
@@ -26749,16 +26717,16 @@
     </row>
     <row r="762" spans="1:9" ht="47.25">
       <c r="A762" s="22" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="B762" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C762" s="40" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D762" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="E762" s="38" t="s">
         <v>22</v>
@@ -26778,16 +26746,16 @@
     </row>
     <row r="763" spans="1:9" ht="47.25">
       <c r="A763" s="22" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="B763" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C763" s="40" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D763" s="22" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E763" s="38" t="s">
         <v>22</v>
@@ -26807,16 +26775,16 @@
     </row>
     <row r="764" spans="1:9" ht="47.25">
       <c r="A764" s="22" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B764" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C764" s="40" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D764" s="22" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="E764" s="38" t="s">
         <v>22</v>
@@ -26836,13 +26804,13 @@
     </row>
     <row r="765" spans="1:9" ht="94.5">
       <c r="A765" s="22" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B765" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C765" s="40" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D765" s="22"/>
       <c r="E765" s="38" t="s">
@@ -26861,13 +26829,13 @@
     </row>
     <row r="766" spans="1:9" ht="47.25">
       <c r="A766" s="22" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="B766" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C766" s="40" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D766" s="22"/>
       <c r="E766" s="38" t="s">
@@ -26892,7 +26860,7 @@
         <v>901</v>
       </c>
       <c r="C767" s="20" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="D767" s="29" t="s">
         <v>1436</v>
@@ -28190,11 +28158,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28202,6 +28165,11 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A818:I818 I770:I818 A240:I816">

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Requirements!$A:$A,Requirements!$19:$19</definedName>
     <definedName name="ScopeList">Requirements!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -5737,9 +5737,6 @@
     <t>[In Appendix A: Product Behavior] Implementation does set this value [Reserved (1 byte)] to 0x01. [&lt;9&gt; Section 2.2.5.1.2.4.1: Exchange 2003 and Exchange 2007 set this value to 0x01.]</t>
   </si>
   <si>
-    <t>[[In Appendix A: Product Behavior] Implementation does set this value [Reserved (1 byte)] to 0x00. [&lt;9&gt; Section 2.2.5.1.2.4.1: Exchange 2010 and Exchange 2013 set this value to 0x00.]</t>
-  </si>
-  <si>
     <t>[In Appendix A: Product Behavior] Implementation does perform a hard delete, as described in [MS-OXCFOLD], but this is not required for the protocol. [&lt;10&gt; Section 2.2.5.1.2.7: Exchange 2003, Exchange 2007, Exchange 2010, Exchange 2013, and Exchange 2016 perform a hard delete, as described in [MS-OXCFOLD], but this is not required for the protocol.]</t>
   </si>
   <si>
@@ -5942,12 +5939,15 @@
   </si>
   <si>
     <t>[In Appendix A: Product Behavior] Implementation does not skip evaluation of this rule (ST_SKIP_IF_SCL_IS_SAFE) if the delivered message's PidTagContentFilterSpamConfidenceLevel property ([MS-OXPROPS] section 2.638) has a value of 0xFFFFFFFF. (Exchange 2003 and above follow this behavior.)</t>
+  </si>
+  <si>
+    <t>[[In Appendix A: Product Behavior] Implementation does set this value [Reserved (1 byte)] to 0x00. [&lt;9&gt; Section 2.2.5.1.2.4.1: Exchange 2010, Exchange 2013, and Exchange 2016 set this value to 0x00.]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -6268,21 +6268,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6307,321 +6292,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="77">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6960,6 +6650,316 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7089,34 +7089,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="74">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="73">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="72">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="71">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="70">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="69">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="68">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="67">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="66">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7125,12 +7125,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="60"/>
-    <tableColumn id="2" name="Test" dataDxfId="59"/>
-    <tableColumn id="3" name="Description" dataDxfId="58"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7179,7 +7179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7212,26 +7212,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7264,23 +7247,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7460,7 +7426,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A738" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A743" sqref="A743:XFD743"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -7514,127 +7482,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7647,12 +7615,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7665,12 +7633,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7683,12 +7651,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7701,60 +7669,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -15554,7 +15522,7 @@
     </row>
     <row r="326" spans="1:9" ht="45">
       <c r="A326" s="22" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>841</v>
@@ -19142,7 +19110,7 @@
     </row>
     <row r="468" spans="1:9" ht="45">
       <c r="A468" s="22" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="B468" s="30" t="s">
         <v>865</v>
@@ -19164,7 +19132,7 @@
         <v>17</v>
       </c>
       <c r="I468" s="20" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="469" spans="1:9">
@@ -19194,7 +19162,7 @@
     </row>
     <row r="470" spans="1:9" ht="45">
       <c r="A470" s="22" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="B470" s="30" t="s">
         <v>866</v>
@@ -19216,7 +19184,7 @@
         <v>17</v>
       </c>
       <c r="I470" s="20" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="471" spans="1:9">
@@ -19345,7 +19313,7 @@
         <v>17</v>
       </c>
       <c r="I475" s="20" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="30">
@@ -19372,7 +19340,7 @@
         <v>17</v>
       </c>
       <c r="I476" s="20" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="30">
@@ -23003,7 +22971,7 @@
         <v>893</v>
       </c>
       <c r="C621" s="20" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="29" t="s">
@@ -23500,7 +23468,7 @@
         <v>17</v>
       </c>
       <c r="I640" s="20" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="641" spans="1:9" ht="60">
@@ -23527,7 +23495,7 @@
         <v>17</v>
       </c>
       <c r="I641" s="20" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="642" spans="1:9" ht="60">
@@ -23783,7 +23751,7 @@
         <v>17</v>
       </c>
       <c r="I651" s="20" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="45">
@@ -24141,7 +24109,7 @@
         <v>17</v>
       </c>
       <c r="I665" s="20" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="30">
@@ -24526,7 +24494,7 @@
         <v>17</v>
       </c>
       <c r="I680" s="20" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="681" spans="1:9" ht="30">
@@ -24553,7 +24521,7 @@
         <v>17</v>
       </c>
       <c r="I681" s="20" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="682" spans="1:9" ht="45">
@@ -25485,16 +25453,16 @@
     </row>
     <row r="717" spans="1:9" ht="45">
       <c r="A717" s="22" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="B717" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C717" s="20" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D717" s="22" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="E717" s="29" t="s">
         <v>22</v>
@@ -25603,7 +25571,7 @@
         <v>901</v>
       </c>
       <c r="C721" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D721" s="22" t="s">
         <v>1799</v>
@@ -25626,16 +25594,16 @@
     </row>
     <row r="722" spans="1:9" ht="45">
       <c r="A722" s="22" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="B722" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C722" s="20" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D722" s="22" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="E722" s="35" t="s">
         <v>22</v>
@@ -26022,7 +25990,7 @@
         <v>901</v>
       </c>
       <c r="C736" s="20" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D736" s="22" t="s">
         <v>1803</v>
@@ -26051,7 +26019,7 @@
         <v>901</v>
       </c>
       <c r="C737" s="20" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D737" s="22" t="s">
         <v>1803</v>
@@ -26223,7 +26191,7 @@
         <v>901</v>
       </c>
       <c r="C743" s="20" t="s">
-        <v>1816</v>
+        <v>1884</v>
       </c>
       <c r="D743" s="29" t="s">
         <v>1432</v>
@@ -26252,7 +26220,7 @@
         <v>901</v>
       </c>
       <c r="C744" s="20" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="D744" s="29" t="s">
         <v>1433</v>
@@ -26302,16 +26270,16 @@
     </row>
     <row r="746" spans="1:9" ht="45">
       <c r="A746" s="35" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="B746" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C746" s="20" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="D746" s="22" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E746" s="29" t="s">
         <v>22</v>
@@ -26331,16 +26299,16 @@
     </row>
     <row r="747" spans="1:9" ht="60">
       <c r="A747" s="22" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="B747" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C747" s="20" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="D747" s="22" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="E747" s="29" t="s">
         <v>22</v>
@@ -26360,16 +26328,16 @@
     </row>
     <row r="748" spans="1:9" ht="45">
       <c r="A748" s="22" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B748" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C748" s="20" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="D748" s="22" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E748" s="29" t="s">
         <v>22</v>
@@ -26389,16 +26357,16 @@
     </row>
     <row r="749" spans="1:9" ht="45">
       <c r="A749" s="22" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="B749" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C749" s="20" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="D749" s="22" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="E749" s="29" t="s">
         <v>22</v>
@@ -26418,16 +26386,16 @@
     </row>
     <row r="750" spans="1:9" ht="45">
       <c r="A750" s="35" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B750" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C750" s="20" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D750" s="22" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E750" s="29" t="s">
         <v>22</v>
@@ -26447,16 +26415,16 @@
     </row>
     <row r="751" spans="1:9" ht="45">
       <c r="A751" s="22" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="B751" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C751" s="20" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="D751" s="22" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="E751" s="29" t="s">
         <v>22</v>
@@ -26476,16 +26444,16 @@
     </row>
     <row r="752" spans="1:9" ht="45">
       <c r="A752" s="22" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B752" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C752" s="20" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
       <c r="D752" s="22" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="E752" s="29" t="s">
         <v>22</v>
@@ -26511,7 +26479,7 @@
         <v>901</v>
       </c>
       <c r="C753" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D753" s="29"/>
       <c r="E753" s="29" t="s">
@@ -26536,7 +26504,7 @@
         <v>901</v>
       </c>
       <c r="C754" s="20" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D754" s="29" t="s">
         <v>1434</v>
@@ -26563,7 +26531,7 @@
         <v>901</v>
       </c>
       <c r="C755" s="20" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D755" s="29" t="s">
         <v>1434</v>
@@ -26590,7 +26558,7 @@
         <v>901</v>
       </c>
       <c r="C756" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D756" s="29" t="s">
         <v>1434</v>
@@ -26619,7 +26587,7 @@
         <v>901</v>
       </c>
       <c r="C757" s="20" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D757" s="29"/>
       <c r="E757" s="29" t="s">
@@ -26644,7 +26612,7 @@
         <v>901</v>
       </c>
       <c r="C758" s="20" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D758" s="29" t="s">
         <v>1435</v>
@@ -26696,16 +26664,16 @@
     </row>
     <row r="760" spans="1:9" s="40" customFormat="1" ht="63">
       <c r="A760" s="37" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B760" s="38" t="s">
         <v>901</v>
       </c>
       <c r="C760" s="39" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D760" s="37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E760" s="37" t="s">
         <v>22</v>
@@ -26725,16 +26693,16 @@
     </row>
     <row r="761" spans="1:9" s="40" customFormat="1" ht="47.25">
       <c r="A761" s="37" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B761" s="38" t="s">
         <v>901</v>
       </c>
       <c r="C761" s="39" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D761" s="37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="E761" s="37" t="s">
         <v>22</v>
@@ -26754,16 +26722,16 @@
     </row>
     <row r="762" spans="1:9" ht="47.25">
       <c r="A762" s="35" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B762" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C762" s="39" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D762" s="22" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E762" s="37" t="s">
         <v>22</v>
@@ -26783,16 +26751,16 @@
     </row>
     <row r="763" spans="1:9" ht="47.25">
       <c r="A763" s="22" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="B763" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C763" s="39" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D763" s="22" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="E763" s="37" t="s">
         <v>22</v>
@@ -26812,16 +26780,16 @@
     </row>
     <row r="764" spans="1:9" ht="47.25">
       <c r="A764" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B764" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C764" s="39" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D764" s="22" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E764" s="37" t="s">
         <v>22</v>
@@ -26841,16 +26809,16 @@
     </row>
     <row r="765" spans="1:9" ht="47.25">
       <c r="A765" s="22" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="B765" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C765" s="39" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D765" s="22" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E765" s="37" t="s">
         <v>22</v>
@@ -26870,13 +26838,13 @@
     </row>
     <row r="766" spans="1:9" ht="94.5">
       <c r="A766" s="22" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B766" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C766" s="39" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D766" s="22"/>
       <c r="E766" s="37" t="s">
@@ -26895,13 +26863,13 @@
     </row>
     <row r="767" spans="1:9" ht="47.25">
       <c r="A767" s="22" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="B767" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C767" s="39" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="D767" s="22"/>
       <c r="E767" s="37" t="s">
@@ -26926,7 +26894,7 @@
         <v>901</v>
       </c>
       <c r="C768" s="20" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="D768" s="29" t="s">
         <v>1436</v>
@@ -28224,6 +28192,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28231,226 +28204,221 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="57" priority="1099">
+    <cfRule type="expression" dxfId="76" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1100">
+    <cfRule type="expression" dxfId="75" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1107">
+    <cfRule type="expression" dxfId="74" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="54" priority="1053">
+    <cfRule type="expression" dxfId="73" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1054">
+    <cfRule type="expression" dxfId="72" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1055">
+    <cfRule type="expression" dxfId="71" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
-    <cfRule type="expression" dxfId="51" priority="1059">
+    <cfRule type="expression" dxfId="70" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1060">
+    <cfRule type="expression" dxfId="69" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="49" priority="1050">
+    <cfRule type="expression" dxfId="68" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="1051">
+    <cfRule type="expression" dxfId="67" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1052">
+    <cfRule type="expression" dxfId="66" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="46" priority="1047">
+    <cfRule type="expression" dxfId="65" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1048">
+    <cfRule type="expression" dxfId="64" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1049">
+    <cfRule type="expression" dxfId="63" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="43" priority="1044">
+    <cfRule type="expression" dxfId="62" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1045">
+    <cfRule type="expression" dxfId="61" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1046">
+    <cfRule type="expression" dxfId="60" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="40" priority="1039">
+    <cfRule type="expression" dxfId="59" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1040">
+    <cfRule type="expression" dxfId="58" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1041">
+    <cfRule type="expression" dxfId="57" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="37" priority="1042">
+    <cfRule type="expression" dxfId="56" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="1043">
+    <cfRule type="expression" dxfId="55" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="35" priority="1036">
+    <cfRule type="expression" dxfId="54" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1037">
+    <cfRule type="expression" dxfId="53" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="1038">
+    <cfRule type="expression" dxfId="52" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="32" priority="1031">
+    <cfRule type="expression" dxfId="51" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1032">
+    <cfRule type="expression" dxfId="50" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="1033">
+    <cfRule type="expression" dxfId="49" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="29" priority="1034">
+    <cfRule type="expression" dxfId="48" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1035">
+    <cfRule type="expression" dxfId="47" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="27" priority="1028">
+    <cfRule type="expression" dxfId="46" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1029">
+    <cfRule type="expression" dxfId="45" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1030">
+    <cfRule type="expression" dxfId="44" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="24" priority="1023">
+    <cfRule type="expression" dxfId="43" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="1024">
+    <cfRule type="expression" dxfId="42" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1025">
+    <cfRule type="expression" dxfId="41" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="21" priority="1026">
+    <cfRule type="expression" dxfId="40" priority="1026">
       <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1027">
+    <cfRule type="expression" dxfId="39" priority="1027">
       <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="19" priority="1021">
+    <cfRule type="expression" dxfId="38" priority="1021">
       <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="1022">
+    <cfRule type="expression" dxfId="37" priority="1022">
       <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="17" priority="1018">
+    <cfRule type="expression" dxfId="36" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="1019">
+    <cfRule type="expression" dxfId="35" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1020">
+    <cfRule type="expression" dxfId="34" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="14" priority="1015">
+    <cfRule type="expression" dxfId="33" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="1016">
+    <cfRule type="expression" dxfId="32" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="1017">
+    <cfRule type="expression" dxfId="31" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="11" priority="1012">
+    <cfRule type="expression" dxfId="30" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="1013">
+    <cfRule type="expression" dxfId="29" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="1014">
+    <cfRule type="expression" dxfId="28" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="8" priority="1009">
+    <cfRule type="expression" dxfId="27" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1010">
+    <cfRule type="expression" dxfId="26" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1011">
+    <cfRule type="expression" dxfId="25" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="5" priority="1006">
+    <cfRule type="expression" dxfId="24" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1007">
+    <cfRule type="expression" dxfId="23" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1008">
+    <cfRule type="expression" dxfId="22" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="2" priority="1003">
+    <cfRule type="expression" dxfId="21" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1004">
+    <cfRule type="expression" dxfId="20" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1005">
+    <cfRule type="expression" dxfId="19" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5860" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="1885">
   <si>
     <t>Req ID</t>
   </si>
@@ -5947,7 +5947,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -7179,7 +7179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7212,9 +7212,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7247,6 +7264,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7426,9 +7460,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A738" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A743" sqref="A743:XFD743"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -15491,7 +15523,7 @@
         <v>15</v>
       </c>
       <c r="H324" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I324" s="31"/>
     </row>
@@ -15516,7 +15548,7 @@
         <v>15</v>
       </c>
       <c r="H325" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I325" s="31"/>
     </row>
@@ -15595,7 +15627,7 @@
         <v>15</v>
       </c>
       <c r="H328" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I328" s="31"/>
     </row>
@@ -15699,7 +15731,7 @@
         <v>15</v>
       </c>
       <c r="H332" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I332" s="31"/>
     </row>
@@ -15749,7 +15781,7 @@
         <v>15</v>
       </c>
       <c r="H334" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I334" s="31"/>
     </row>
@@ -15899,7 +15931,7 @@
         <v>15</v>
       </c>
       <c r="H340" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I340" s="31"/>
     </row>
@@ -18479,7 +18511,7 @@
         <v>15</v>
       </c>
       <c r="H442" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I442" s="31"/>
     </row>
@@ -18504,7 +18536,7 @@
         <v>15</v>
       </c>
       <c r="H443" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I443" s="31"/>
     </row>
@@ -18529,7 +18561,7 @@
         <v>15</v>
       </c>
       <c r="H444" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I444" s="31"/>
     </row>
@@ -18554,7 +18586,7 @@
         <v>15</v>
       </c>
       <c r="H445" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I445" s="31"/>
     </row>
@@ -18579,7 +18611,7 @@
         <v>15</v>
       </c>
       <c r="H446" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I446" s="31"/>
     </row>
@@ -18629,7 +18661,7 @@
         <v>15</v>
       </c>
       <c r="H448" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I448" s="31"/>
     </row>
@@ -18654,7 +18686,7 @@
         <v>15</v>
       </c>
       <c r="H449" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I449" s="31"/>
     </row>
@@ -18679,7 +18711,7 @@
         <v>15</v>
       </c>
       <c r="H450" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I450" s="31"/>
     </row>
@@ -18704,7 +18736,7 @@
         <v>15</v>
       </c>
       <c r="H451" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I451" s="31"/>
     </row>
@@ -18729,7 +18761,7 @@
         <v>15</v>
       </c>
       <c r="H452" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I452" s="31"/>
     </row>
@@ -18754,7 +18786,7 @@
         <v>15</v>
       </c>
       <c r="H453" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I453" s="31"/>
     </row>
@@ -18779,7 +18811,7 @@
         <v>15</v>
       </c>
       <c r="H454" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I454" s="31"/>
     </row>
@@ -18804,7 +18836,7 @@
         <v>15</v>
       </c>
       <c r="H455" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I455" s="31"/>
     </row>
@@ -18904,7 +18936,7 @@
         <v>15</v>
       </c>
       <c r="H459" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I459" s="31"/>
     </row>
@@ -19004,7 +19036,7 @@
         <v>15</v>
       </c>
       <c r="H463" s="29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I463" s="31"/>
     </row>
@@ -25474,11 +25506,9 @@
         <v>15</v>
       </c>
       <c r="H717" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I717" s="20" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I717" s="20"/>
     </row>
     <row r="718" spans="1:9" ht="30">
       <c r="A718" s="29" t="s">
@@ -26061,11 +26091,9 @@
         <v>15</v>
       </c>
       <c r="H738" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I738" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I738" s="31"/>
     </row>
     <row r="739" spans="1:9" ht="45">
       <c r="A739" s="22" t="s">
@@ -26090,11 +26118,9 @@
         <v>15</v>
       </c>
       <c r="H739" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I739" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I739" s="31"/>
     </row>
     <row r="740" spans="1:9" ht="45">
       <c r="A740" s="29" t="s">

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="1885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5858" uniqueCount="1886">
   <si>
     <t>Req ID</t>
   </si>
@@ -5943,11 +5943,14 @@
   <si>
     <t>[[In Appendix A: Product Behavior] Implementation does set this value [Reserved (1 byte)] to 0x00. [&lt;9&gt; Section 2.2.5.1.2.4.1: Exchange 2010, Exchange 2013, and Exchange 2016 set this value to 0x00.]</t>
   </si>
+  <si>
+    <t>Verified by requirement: MS-OXORULE_R5281.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -6268,6 +6271,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6292,26 +6310,41 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="83">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7089,34 +7122,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
   <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7125,12 +7158,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="8"/>
+    <tableColumn id="2" name="Test" dataDxfId="7"/>
+    <tableColumn id="3" name="Description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7179,7 +7212,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7212,26 +7245,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7264,23 +7280,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7460,7 +7459,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A617" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A621" sqref="A621"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
@@ -7514,127 +7515,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7647,12 +7648,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7665,12 +7666,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7683,12 +7684,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7701,60 +7702,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -22941,7 +22942,7 @@
       <c r="H618" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I618" s="31" t="s">
+      <c r="I618" s="20" t="s">
         <v>1495</v>
       </c>
     </row>
@@ -23016,9 +23017,11 @@
         <v>15</v>
       </c>
       <c r="H621" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I621" s="31"/>
+        <v>17</v>
+      </c>
+      <c r="I621" s="20" t="s">
+        <v>1885</v>
+      </c>
     </row>
     <row r="622" spans="1:9" ht="45">
       <c r="A622" s="29" t="s">
@@ -28218,11 +28221,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28230,221 +28228,226 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="76" priority="1099">
+    <cfRule type="expression" dxfId="82" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1100">
+    <cfRule type="expression" dxfId="81" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1107">
+    <cfRule type="expression" dxfId="80" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="73" priority="1053">
+    <cfRule type="expression" dxfId="79" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1054">
+    <cfRule type="expression" dxfId="78" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1055">
+    <cfRule type="expression" dxfId="77" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
-    <cfRule type="expression" dxfId="70" priority="1059">
+    <cfRule type="expression" dxfId="76" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1060">
+    <cfRule type="expression" dxfId="75" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="68" priority="1050">
+    <cfRule type="expression" dxfId="74" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1051">
+    <cfRule type="expression" dxfId="73" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1052">
+    <cfRule type="expression" dxfId="72" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="65" priority="1047">
+    <cfRule type="expression" dxfId="71" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1048">
+    <cfRule type="expression" dxfId="70" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1049">
+    <cfRule type="expression" dxfId="69" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="62" priority="1044">
+    <cfRule type="expression" dxfId="68" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="1045">
+    <cfRule type="expression" dxfId="67" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="1046">
+    <cfRule type="expression" dxfId="66" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="59" priority="1039">
+    <cfRule type="expression" dxfId="65" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1040">
+    <cfRule type="expression" dxfId="64" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1041">
+    <cfRule type="expression" dxfId="63" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="56" priority="1042">
+    <cfRule type="expression" dxfId="62" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1043">
+    <cfRule type="expression" dxfId="61" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="54" priority="1036">
+    <cfRule type="expression" dxfId="60" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1037">
+    <cfRule type="expression" dxfId="59" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1038">
+    <cfRule type="expression" dxfId="58" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="51" priority="1031">
+    <cfRule type="expression" dxfId="57" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1032">
+    <cfRule type="expression" dxfId="56" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1033">
+    <cfRule type="expression" dxfId="55" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="48" priority="1034">
+    <cfRule type="expression" dxfId="54" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1035">
+    <cfRule type="expression" dxfId="53" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="46" priority="1028">
+    <cfRule type="expression" dxfId="52" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1029">
+    <cfRule type="expression" dxfId="51" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1030">
+    <cfRule type="expression" dxfId="50" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="43" priority="1023">
+    <cfRule type="expression" dxfId="49" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1024">
+    <cfRule type="expression" dxfId="48" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1025">
+    <cfRule type="expression" dxfId="47" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="40" priority="1026">
+    <cfRule type="expression" dxfId="46" priority="1026">
       <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1027">
+    <cfRule type="expression" dxfId="45" priority="1027">
       <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="38" priority="1021">
+    <cfRule type="expression" dxfId="44" priority="1021">
       <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1022">
+    <cfRule type="expression" dxfId="43" priority="1022">
       <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="36" priority="1018">
+    <cfRule type="expression" dxfId="42" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1019">
+    <cfRule type="expression" dxfId="41" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1020">
+    <cfRule type="expression" dxfId="40" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="33" priority="1015">
+    <cfRule type="expression" dxfId="39" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1016">
+    <cfRule type="expression" dxfId="38" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1017">
+    <cfRule type="expression" dxfId="37" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="30" priority="1012">
+    <cfRule type="expression" dxfId="36" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1013">
+    <cfRule type="expression" dxfId="35" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1014">
+    <cfRule type="expression" dxfId="34" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="27" priority="1009">
+    <cfRule type="expression" dxfId="33" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1010">
+    <cfRule type="expression" dxfId="32" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1011">
+    <cfRule type="expression" dxfId="31" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="24" priority="1006">
+    <cfRule type="expression" dxfId="30" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="1007">
+    <cfRule type="expression" dxfId="29" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1008">
+    <cfRule type="expression" dxfId="28" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="21" priority="1003">
+    <cfRule type="expression" dxfId="27" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1004">
+    <cfRule type="expression" dxfId="26" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="1005">
+    <cfRule type="expression" dxfId="25" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5858" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="1886">
   <si>
     <t>Req ID</t>
   </si>
@@ -6271,21 +6271,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6310,41 +6295,26 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -7122,34 +7092,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7158,12 +7128,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="8"/>
-    <tableColumn id="2" name="Test" dataDxfId="7"/>
-    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7459,13 +7429,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A617" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A621" sqref="A621"/>
+    <sheetView tabSelected="1" topLeftCell="A744" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C748" sqref="C748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
@@ -7515,127 +7485,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7648,12 +7618,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7666,12 +7636,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7684,12 +7654,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7702,60 +7672,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -26320,11 +26290,9 @@
         <v>15</v>
       </c>
       <c r="H746" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I746" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I746" s="31"/>
     </row>
     <row r="747" spans="1:9" ht="60">
       <c r="A747" s="22" t="s">
@@ -28221,6 +28189,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28228,226 +28201,221 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="82" priority="1099">
+    <cfRule type="expression" dxfId="76" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1100">
+    <cfRule type="expression" dxfId="75" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="1107">
+    <cfRule type="expression" dxfId="74" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="79" priority="1053">
+    <cfRule type="expression" dxfId="73" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="1054">
+    <cfRule type="expression" dxfId="72" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="1055">
+    <cfRule type="expression" dxfId="71" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
-    <cfRule type="expression" dxfId="76" priority="1059">
+    <cfRule type="expression" dxfId="70" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1060">
+    <cfRule type="expression" dxfId="69" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="74" priority="1050">
+    <cfRule type="expression" dxfId="68" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1051">
+    <cfRule type="expression" dxfId="67" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1052">
+    <cfRule type="expression" dxfId="66" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="71" priority="1047">
+    <cfRule type="expression" dxfId="65" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1048">
+    <cfRule type="expression" dxfId="64" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1049">
+    <cfRule type="expression" dxfId="63" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="68" priority="1044">
+    <cfRule type="expression" dxfId="62" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1045">
+    <cfRule type="expression" dxfId="61" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1046">
+    <cfRule type="expression" dxfId="60" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="65" priority="1039">
+    <cfRule type="expression" dxfId="59" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1040">
+    <cfRule type="expression" dxfId="58" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1041">
+    <cfRule type="expression" dxfId="57" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="62" priority="1042">
+    <cfRule type="expression" dxfId="56" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="1043">
+    <cfRule type="expression" dxfId="55" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="60" priority="1036">
+    <cfRule type="expression" dxfId="54" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="1037">
+    <cfRule type="expression" dxfId="53" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1038">
+    <cfRule type="expression" dxfId="52" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="57" priority="1031">
+    <cfRule type="expression" dxfId="51" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1032">
+    <cfRule type="expression" dxfId="50" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1033">
+    <cfRule type="expression" dxfId="49" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="54" priority="1034">
+    <cfRule type="expression" dxfId="48" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1035">
+    <cfRule type="expression" dxfId="47" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="52" priority="1028">
+    <cfRule type="expression" dxfId="46" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="1029">
+    <cfRule type="expression" dxfId="45" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1030">
+    <cfRule type="expression" dxfId="44" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="49" priority="1023">
+    <cfRule type="expression" dxfId="43" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="1024">
+    <cfRule type="expression" dxfId="42" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1025">
+    <cfRule type="expression" dxfId="41" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="46" priority="1026">
+    <cfRule type="expression" dxfId="40" priority="1026">
       <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1027">
+    <cfRule type="expression" dxfId="39" priority="1027">
       <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="44" priority="1021">
+    <cfRule type="expression" dxfId="38" priority="1021">
       <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1022">
+    <cfRule type="expression" dxfId="37" priority="1022">
       <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="42" priority="1018">
+    <cfRule type="expression" dxfId="36" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1019">
+    <cfRule type="expression" dxfId="35" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="1020">
+    <cfRule type="expression" dxfId="34" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="39" priority="1015">
+    <cfRule type="expression" dxfId="33" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1016">
+    <cfRule type="expression" dxfId="32" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1017">
+    <cfRule type="expression" dxfId="31" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="36" priority="1012">
+    <cfRule type="expression" dxfId="30" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1013">
+    <cfRule type="expression" dxfId="29" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1014">
+    <cfRule type="expression" dxfId="28" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="33" priority="1009">
+    <cfRule type="expression" dxfId="27" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1010">
+    <cfRule type="expression" dxfId="26" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1011">
+    <cfRule type="expression" dxfId="25" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="30" priority="1006">
+    <cfRule type="expression" dxfId="24" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1007">
+    <cfRule type="expression" dxfId="23" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1008">
+    <cfRule type="expression" dxfId="22" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="27" priority="1003">
+    <cfRule type="expression" dxfId="21" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1004">
+    <cfRule type="expression" dxfId="20" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1005">
+    <cfRule type="expression" dxfId="19" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1886">
   <si>
     <t>Req ID</t>
   </si>
@@ -6271,6 +6271,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6295,26 +6310,41 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="83">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7092,34 +7122,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
   <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7128,12 +7158,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="8"/>
+    <tableColumn id="2" name="Test" dataDxfId="7"/>
+    <tableColumn id="3" name="Description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7429,8 +7459,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C748" sqref="C748"/>
+    <sheetView tabSelected="1" topLeftCell="D744" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H751" sqref="H751"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7485,127 +7515,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7618,12 +7648,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7636,12 +7666,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7654,12 +7684,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7672,60 +7702,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -26346,11 +26376,9 @@
         <v>15</v>
       </c>
       <c r="H748" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I748" s="31" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I748" s="31"/>
     </row>
     <row r="749" spans="1:9" ht="45">
       <c r="A749" s="22" t="s">
@@ -28189,11 +28217,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28201,221 +28224,226 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="76" priority="1099">
+    <cfRule type="expression" dxfId="82" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1100">
+    <cfRule type="expression" dxfId="81" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1107">
+    <cfRule type="expression" dxfId="80" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="73" priority="1053">
+    <cfRule type="expression" dxfId="79" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1054">
+    <cfRule type="expression" dxfId="78" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1055">
+    <cfRule type="expression" dxfId="77" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
-    <cfRule type="expression" dxfId="70" priority="1059">
+    <cfRule type="expression" dxfId="76" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1060">
+    <cfRule type="expression" dxfId="75" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="68" priority="1050">
+    <cfRule type="expression" dxfId="74" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1051">
+    <cfRule type="expression" dxfId="73" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1052">
+    <cfRule type="expression" dxfId="72" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="65" priority="1047">
+    <cfRule type="expression" dxfId="71" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1048">
+    <cfRule type="expression" dxfId="70" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1049">
+    <cfRule type="expression" dxfId="69" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="62" priority="1044">
+    <cfRule type="expression" dxfId="68" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="1045">
+    <cfRule type="expression" dxfId="67" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="1046">
+    <cfRule type="expression" dxfId="66" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="59" priority="1039">
+    <cfRule type="expression" dxfId="65" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1040">
+    <cfRule type="expression" dxfId="64" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1041">
+    <cfRule type="expression" dxfId="63" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="56" priority="1042">
+    <cfRule type="expression" dxfId="62" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1043">
+    <cfRule type="expression" dxfId="61" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="54" priority="1036">
+    <cfRule type="expression" dxfId="60" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1037">
+    <cfRule type="expression" dxfId="59" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1038">
+    <cfRule type="expression" dxfId="58" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="51" priority="1031">
+    <cfRule type="expression" dxfId="57" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1032">
+    <cfRule type="expression" dxfId="56" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1033">
+    <cfRule type="expression" dxfId="55" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="48" priority="1034">
+    <cfRule type="expression" dxfId="54" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1035">
+    <cfRule type="expression" dxfId="53" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="46" priority="1028">
+    <cfRule type="expression" dxfId="52" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1029">
+    <cfRule type="expression" dxfId="51" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1030">
+    <cfRule type="expression" dxfId="50" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="43" priority="1023">
+    <cfRule type="expression" dxfId="49" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1024">
+    <cfRule type="expression" dxfId="48" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1025">
+    <cfRule type="expression" dxfId="47" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="40" priority="1026">
+    <cfRule type="expression" dxfId="46" priority="1026">
       <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1027">
+    <cfRule type="expression" dxfId="45" priority="1027">
       <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="38" priority="1021">
+    <cfRule type="expression" dxfId="44" priority="1021">
       <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1022">
+    <cfRule type="expression" dxfId="43" priority="1022">
       <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="36" priority="1018">
+    <cfRule type="expression" dxfId="42" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1019">
+    <cfRule type="expression" dxfId="41" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1020">
+    <cfRule type="expression" dxfId="40" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="33" priority="1015">
+    <cfRule type="expression" dxfId="39" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1016">
+    <cfRule type="expression" dxfId="38" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1017">
+    <cfRule type="expression" dxfId="37" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="30" priority="1012">
+    <cfRule type="expression" dxfId="36" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1013">
+    <cfRule type="expression" dxfId="35" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1014">
+    <cfRule type="expression" dxfId="34" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="27" priority="1009">
+    <cfRule type="expression" dxfId="33" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1010">
+    <cfRule type="expression" dxfId="32" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1011">
+    <cfRule type="expression" dxfId="31" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="24" priority="1006">
+    <cfRule type="expression" dxfId="30" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="1007">
+    <cfRule type="expression" dxfId="29" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1008">
+    <cfRule type="expression" dxfId="28" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="21" priority="1003">
+    <cfRule type="expression" dxfId="27" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1004">
+    <cfRule type="expression" dxfId="26" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="1005">
+    <cfRule type="expression" dxfId="25" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="1886">
   <si>
     <t>Req ID</t>
   </si>
@@ -5797,9 +5797,6 @@
     <t>MS-OXORULE_R7202</t>
   </si>
   <si>
-    <t>[[In Appendix A: Product Behavior] Implementation does define the behavior for PidTagHasRules. (&lt;13&gt; Section 2.2.8.1:  The server behavior is undefined in Exchange 2013 SP1.)</t>
-  </si>
-  <si>
     <t>[[In Appendix A: Product Behavior] Implementation does set PidTagHasRules to "TRUE" if any rules (2) are set on a folder. (Exchange 2007, Exchange 2010 and Exchange 2016 follow this behavior.)</t>
   </si>
   <si>
@@ -5945,6 +5942,9 @@
   </si>
   <si>
     <t>Verified by requirement: MS-OXORULE_R5281.</t>
+  </si>
+  <si>
+    <t>[[In Appendix A: Product Behavior] Implementation does not define the behavior for PidTagHasRules. (&lt;13&gt; Section 2.2.8.1:  The server behavior is undefined in Exchange 2013 SP1.)</t>
   </si>
 </sst>
 </file>
@@ -6271,21 +6271,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6310,11 +6295,86 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="95">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike/>
@@ -7122,34 +7182,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" connectionId="1">
   <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="34">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="33">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="32">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="31">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="30">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="29">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="28">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="27">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="26">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7158,12 +7218,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="8"/>
-    <tableColumn id="2" name="Test" dataDxfId="7"/>
-    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="1" name="Scope" dataDxfId="20"/>
+    <tableColumn id="2" name="Test" dataDxfId="19"/>
+    <tableColumn id="3" name="Description" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7459,8 +7519,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D744" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H751" sqref="H751"/>
+    <sheetView tabSelected="1" topLeftCell="A741" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C744" sqref="C744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7468,7 +7528,7 @@
     <col min="1" max="1" width="20.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -7515,127 +7575,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7648,12 +7708,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7666,12 +7726,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7684,12 +7744,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7702,60 +7762,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -15555,7 +15615,7 @@
     </row>
     <row r="326" spans="1:9" ht="45">
       <c r="A326" s="22" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>841</v>
@@ -18867,7 +18927,7 @@
       <c r="I456" s="31"/>
     </row>
     <row r="457" spans="1:9" ht="30">
-      <c r="A457" s="29" t="s">
+      <c r="A457" s="22" t="s">
         <v>466</v>
       </c>
       <c r="B457" s="30" t="s">
@@ -19042,13 +19102,13 @@
       <c r="I463" s="31"/>
     </row>
     <row r="464" spans="1:9" ht="45">
-      <c r="A464" s="29" t="s">
+      <c r="A464" s="22" t="s">
         <v>473</v>
       </c>
       <c r="B464" s="30" t="s">
         <v>863</v>
       </c>
-      <c r="C464" s="31" t="s">
+      <c r="C464" s="20" t="s">
         <v>1712</v>
       </c>
       <c r="D464" s="29"/>
@@ -19346,7 +19406,7 @@
         <v>17</v>
       </c>
       <c r="I475" s="20" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="476" spans="1:9" ht="30">
@@ -19373,7 +19433,7 @@
         <v>17</v>
       </c>
       <c r="I476" s="20" t="s">
-        <v>1842</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="477" spans="1:9" ht="30">
@@ -23004,7 +23064,7 @@
         <v>893</v>
       </c>
       <c r="C621" s="20" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="29" t="s">
@@ -23020,7 +23080,7 @@
         <v>17</v>
       </c>
       <c r="I621" s="20" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="622" spans="1:9" ht="45">
@@ -23405,13 +23465,13 @@
       <c r="I636" s="31"/>
     </row>
     <row r="637" spans="1:9" ht="75">
-      <c r="A637" s="29" t="s">
+      <c r="A637" s="22" t="s">
         <v>644</v>
       </c>
       <c r="B637" s="30" t="s">
         <v>893</v>
       </c>
-      <c r="C637" s="31" t="s">
+      <c r="C637" s="20" t="s">
         <v>1736</v>
       </c>
       <c r="D637" s="29"/>
@@ -23503,7 +23563,7 @@
         <v>17</v>
       </c>
       <c r="I640" s="20" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="641" spans="1:9" ht="60">
@@ -23530,7 +23590,7 @@
         <v>17</v>
       </c>
       <c r="I641" s="20" t="s">
-        <v>1854</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="642" spans="1:9" ht="60">
@@ -23786,7 +23846,7 @@
         <v>17</v>
       </c>
       <c r="I651" s="20" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="45">
@@ -24144,7 +24204,7 @@
         <v>17</v>
       </c>
       <c r="I665" s="20" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="30">
@@ -25488,16 +25548,16 @@
     </row>
     <row r="717" spans="1:9" ht="45">
       <c r="A717" s="22" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="B717" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C717" s="20" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
       <c r="D717" s="22" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="E717" s="29" t="s">
         <v>22</v>
@@ -25604,7 +25664,7 @@
         <v>901</v>
       </c>
       <c r="C721" s="20" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D721" s="22" t="s">
         <v>1799</v>
@@ -25627,16 +25687,16 @@
     </row>
     <row r="722" spans="1:9" ht="45">
       <c r="A722" s="22" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="B722" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C722" s="20" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D722" s="22" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="E722" s="35" t="s">
         <v>22</v>
@@ -26023,7 +26083,7 @@
         <v>901</v>
       </c>
       <c r="C736" s="20" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D736" s="22" t="s">
         <v>1803</v>
@@ -26052,7 +26112,7 @@
         <v>901</v>
       </c>
       <c r="C737" s="20" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="D737" s="22" t="s">
         <v>1803</v>
@@ -26121,9 +26181,11 @@
         <v>15</v>
       </c>
       <c r="H739" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I739" s="31"/>
+        <v>20</v>
+      </c>
+      <c r="I739" s="31" t="s">
+        <v>1511</v>
+      </c>
     </row>
     <row r="740" spans="1:9" ht="45">
       <c r="A740" s="29" t="s">
@@ -26184,7 +26246,7 @@
       </c>
     </row>
     <row r="742" spans="1:9" ht="45">
-      <c r="A742" s="29" t="s">
+      <c r="A742" s="22" t="s">
         <v>739</v>
       </c>
       <c r="B742" s="30" t="s">
@@ -26220,7 +26282,7 @@
         <v>901</v>
       </c>
       <c r="C743" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
       <c r="D743" s="29" t="s">
         <v>1432</v>
@@ -26417,7 +26479,7 @@
         <v>901</v>
       </c>
       <c r="C750" s="20" t="s">
-        <v>1836</v>
+        <v>1885</v>
       </c>
       <c r="D750" s="22" t="s">
         <v>1833</v>
@@ -26432,7 +26494,7 @@
         <v>15</v>
       </c>
       <c r="H750" s="35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I750" s="31" t="s">
         <v>1511</v>
@@ -26446,7 +26508,7 @@
         <v>901</v>
       </c>
       <c r="C751" s="20" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
       <c r="D751" s="22" t="s">
         <v>1833</v>
@@ -26469,16 +26531,16 @@
     </row>
     <row r="752" spans="1:9" ht="45">
       <c r="A752" s="22" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B752" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C752" s="20" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="D752" s="22" t="s">
-        <v>1839</v>
+        <v>1838</v>
       </c>
       <c r="E752" s="29" t="s">
         <v>22</v>
@@ -26504,7 +26566,7 @@
         <v>901</v>
       </c>
       <c r="C753" s="20" t="s">
-        <v>1843</v>
+        <v>1842</v>
       </c>
       <c r="D753" s="29"/>
       <c r="E753" s="29" t="s">
@@ -26529,7 +26591,7 @@
         <v>901</v>
       </c>
       <c r="C754" s="20" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="D754" s="29" t="s">
         <v>1434</v>
@@ -26556,7 +26618,7 @@
         <v>901</v>
       </c>
       <c r="C755" s="20" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
       <c r="D755" s="29" t="s">
         <v>1434</v>
@@ -26583,7 +26645,7 @@
         <v>901</v>
       </c>
       <c r="C756" s="20" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="D756" s="29" t="s">
         <v>1434</v>
@@ -26612,7 +26674,7 @@
         <v>901</v>
       </c>
       <c r="C757" s="20" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="D757" s="29"/>
       <c r="E757" s="29" t="s">
@@ -26637,7 +26699,7 @@
         <v>901</v>
       </c>
       <c r="C758" s="20" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="D758" s="29" t="s">
         <v>1435</v>
@@ -26689,16 +26751,16 @@
     </row>
     <row r="760" spans="1:9" s="40" customFormat="1" ht="63">
       <c r="A760" s="37" t="s">
-        <v>1851</v>
+        <v>1850</v>
       </c>
       <c r="B760" s="38" t="s">
         <v>901</v>
       </c>
       <c r="C760" s="39" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D760" s="37" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E760" s="37" t="s">
         <v>22</v>
@@ -26718,16 +26780,16 @@
     </row>
     <row r="761" spans="1:9" s="40" customFormat="1" ht="47.25">
       <c r="A761" s="37" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
       <c r="B761" s="38" t="s">
         <v>901</v>
       </c>
       <c r="C761" s="39" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D761" s="37" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="E761" s="37" t="s">
         <v>22</v>
@@ -26747,16 +26809,16 @@
     </row>
     <row r="762" spans="1:9" ht="47.25">
       <c r="A762" s="35" t="s">
-        <v>1856</v>
+        <v>1855</v>
       </c>
       <c r="B762" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C762" s="39" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D762" s="22" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E762" s="37" t="s">
         <v>22</v>
@@ -26776,16 +26838,16 @@
     </row>
     <row r="763" spans="1:9" ht="47.25">
       <c r="A763" s="22" t="s">
-        <v>1857</v>
+        <v>1856</v>
       </c>
       <c r="B763" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C763" s="39" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D763" s="22" t="s">
-        <v>1855</v>
+        <v>1854</v>
       </c>
       <c r="E763" s="37" t="s">
         <v>22</v>
@@ -26805,16 +26867,16 @@
     </row>
     <row r="764" spans="1:9" ht="47.25">
       <c r="A764" s="22" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B764" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C764" s="39" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D764" s="22" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E764" s="37" t="s">
         <v>22</v>
@@ -26834,16 +26896,16 @@
     </row>
     <row r="765" spans="1:9" ht="47.25">
       <c r="A765" s="22" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="B765" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C765" s="39" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="D765" s="22" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="E765" s="37" t="s">
         <v>22</v>
@@ -26863,13 +26925,13 @@
     </row>
     <row r="766" spans="1:9" ht="94.5">
       <c r="A766" s="22" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="B766" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C766" s="39" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="D766" s="22"/>
       <c r="E766" s="37" t="s">
@@ -26888,13 +26950,13 @@
     </row>
     <row r="767" spans="1:9" ht="47.25">
       <c r="A767" s="22" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="B767" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C767" s="39" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="D767" s="22"/>
       <c r="E767" s="37" t="s">
@@ -26919,7 +26981,7 @@
         <v>901</v>
       </c>
       <c r="C768" s="20" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="D768" s="29" t="s">
         <v>1436</v>
@@ -28217,6 +28279,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28224,226 +28291,221 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="82" priority="1099">
+    <cfRule type="expression" dxfId="94" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1100">
+    <cfRule type="expression" dxfId="93" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="1107">
+    <cfRule type="expression" dxfId="92" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="79" priority="1053">
+    <cfRule type="expression" dxfId="91" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="1054">
+    <cfRule type="expression" dxfId="90" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="1055">
+    <cfRule type="expression" dxfId="89" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
-    <cfRule type="expression" dxfId="76" priority="1059">
+    <cfRule type="expression" dxfId="88" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1060">
+    <cfRule type="expression" dxfId="87" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="74" priority="1050">
+    <cfRule type="expression" dxfId="86" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1051">
+    <cfRule type="expression" dxfId="85" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1052">
+    <cfRule type="expression" dxfId="84" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="71" priority="1047">
+    <cfRule type="expression" dxfId="83" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1048">
+    <cfRule type="expression" dxfId="82" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1049">
+    <cfRule type="expression" dxfId="81" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="68" priority="1044">
+    <cfRule type="expression" dxfId="80" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1045">
+    <cfRule type="expression" dxfId="79" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1046">
+    <cfRule type="expression" dxfId="78" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="65" priority="1039">
+    <cfRule type="expression" dxfId="77" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1040">
+    <cfRule type="expression" dxfId="76" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1041">
+    <cfRule type="expression" dxfId="75" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="62" priority="1042">
+    <cfRule type="expression" dxfId="74" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="1043">
+    <cfRule type="expression" dxfId="73" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="60" priority="1036">
+    <cfRule type="expression" dxfId="72" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="1037">
+    <cfRule type="expression" dxfId="71" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1038">
+    <cfRule type="expression" dxfId="70" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="57" priority="1031">
+    <cfRule type="expression" dxfId="69" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1032">
+    <cfRule type="expression" dxfId="68" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1033">
+    <cfRule type="expression" dxfId="67" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="54" priority="1034">
+    <cfRule type="expression" dxfId="66" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1035">
+    <cfRule type="expression" dxfId="65" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="52" priority="1028">
+    <cfRule type="expression" dxfId="64" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="1029">
+    <cfRule type="expression" dxfId="63" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1030">
+    <cfRule type="expression" dxfId="62" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="49" priority="1023">
+    <cfRule type="expression" dxfId="61" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="1024">
+    <cfRule type="expression" dxfId="60" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1025">
+    <cfRule type="expression" dxfId="59" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="46" priority="1026">
+    <cfRule type="expression" dxfId="58" priority="1026">
       <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1027">
+    <cfRule type="expression" dxfId="57" priority="1027">
       <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="44" priority="1021">
+    <cfRule type="expression" dxfId="56" priority="1021">
       <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1022">
+    <cfRule type="expression" dxfId="55" priority="1022">
       <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="42" priority="1018">
+    <cfRule type="expression" dxfId="54" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1019">
+    <cfRule type="expression" dxfId="53" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="1020">
+    <cfRule type="expression" dxfId="52" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="39" priority="1015">
+    <cfRule type="expression" dxfId="51" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1016">
+    <cfRule type="expression" dxfId="50" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1017">
+    <cfRule type="expression" dxfId="49" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="36" priority="1012">
+    <cfRule type="expression" dxfId="48" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1013">
+    <cfRule type="expression" dxfId="47" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1014">
+    <cfRule type="expression" dxfId="46" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="33" priority="1009">
+    <cfRule type="expression" dxfId="45" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1010">
+    <cfRule type="expression" dxfId="44" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1011">
+    <cfRule type="expression" dxfId="43" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="30" priority="1006">
+    <cfRule type="expression" dxfId="42" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1007">
+    <cfRule type="expression" dxfId="41" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1008">
+    <cfRule type="expression" dxfId="40" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="27" priority="1003">
+    <cfRule type="expression" dxfId="39" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1004">
+    <cfRule type="expression" dxfId="38" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1005">
+    <cfRule type="expression" dxfId="37" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5857" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1886">
   <si>
     <t>Req ID</t>
   </si>
@@ -6271,6 +6271,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6295,116 +6310,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -7182,34 +7092,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="34">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="33">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="32">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="31">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="30">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="29">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="28">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="27">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="26">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7218,12 +7128,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="20"/>
-    <tableColumn id="2" name="Test" dataDxfId="19"/>
-    <tableColumn id="3" name="Description" dataDxfId="18"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7519,8 +7429,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A741" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C744" sqref="C744"/>
+    <sheetView tabSelected="1" topLeftCell="D741" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I750" sqref="I750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7575,127 +7485,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7708,12 +7618,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7726,12 +7636,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7744,12 +7654,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7762,60 +7672,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -26496,9 +26406,7 @@
       <c r="H750" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I750" s="31" t="s">
-        <v>1511</v>
-      </c>
+      <c r="I750" s="31"/>
     </row>
     <row r="751" spans="1:9" ht="45">
       <c r="A751" s="22" t="s">
@@ -28279,11 +28187,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28291,221 +28194,226 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="94" priority="1099">
+    <cfRule type="expression" dxfId="76" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="1100">
+    <cfRule type="expression" dxfId="75" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="1107">
+    <cfRule type="expression" dxfId="74" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="91" priority="1053">
+    <cfRule type="expression" dxfId="73" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="1054">
+    <cfRule type="expression" dxfId="72" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="1055">
+    <cfRule type="expression" dxfId="71" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
-    <cfRule type="expression" dxfId="88" priority="1059">
+    <cfRule type="expression" dxfId="70" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="1060">
+    <cfRule type="expression" dxfId="69" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="86" priority="1050">
+    <cfRule type="expression" dxfId="68" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="1051">
+    <cfRule type="expression" dxfId="67" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="1052">
+    <cfRule type="expression" dxfId="66" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="83" priority="1047">
+    <cfRule type="expression" dxfId="65" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="1048">
+    <cfRule type="expression" dxfId="64" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1049">
+    <cfRule type="expression" dxfId="63" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="80" priority="1044">
+    <cfRule type="expression" dxfId="62" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="1045">
+    <cfRule type="expression" dxfId="61" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="1046">
+    <cfRule type="expression" dxfId="60" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="77" priority="1039">
+    <cfRule type="expression" dxfId="59" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="1040">
+    <cfRule type="expression" dxfId="58" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1041">
+    <cfRule type="expression" dxfId="57" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="74" priority="1042">
+    <cfRule type="expression" dxfId="56" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1043">
+    <cfRule type="expression" dxfId="55" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="72" priority="1036">
+    <cfRule type="expression" dxfId="54" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1037">
+    <cfRule type="expression" dxfId="53" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1038">
+    <cfRule type="expression" dxfId="52" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="69" priority="1031">
+    <cfRule type="expression" dxfId="51" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="1032">
+    <cfRule type="expression" dxfId="50" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1033">
+    <cfRule type="expression" dxfId="49" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="66" priority="1034">
+    <cfRule type="expression" dxfId="48" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="1035">
+    <cfRule type="expression" dxfId="47" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="64" priority="1028">
+    <cfRule type="expression" dxfId="46" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1029">
+    <cfRule type="expression" dxfId="45" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="1030">
+    <cfRule type="expression" dxfId="44" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="61" priority="1023">
+    <cfRule type="expression" dxfId="43" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="1024">
+    <cfRule type="expression" dxfId="42" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="1025">
+    <cfRule type="expression" dxfId="41" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="58" priority="1026">
+    <cfRule type="expression" dxfId="40" priority="1026">
       <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1027">
+    <cfRule type="expression" dxfId="39" priority="1027">
       <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="56" priority="1021">
+    <cfRule type="expression" dxfId="38" priority="1021">
       <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1022">
+    <cfRule type="expression" dxfId="37" priority="1022">
       <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="54" priority="1018">
+    <cfRule type="expression" dxfId="36" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1019">
+    <cfRule type="expression" dxfId="35" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1020">
+    <cfRule type="expression" dxfId="34" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="51" priority="1015">
+    <cfRule type="expression" dxfId="33" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1016">
+    <cfRule type="expression" dxfId="32" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1017">
+    <cfRule type="expression" dxfId="31" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="48" priority="1012">
+    <cfRule type="expression" dxfId="30" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1013">
+    <cfRule type="expression" dxfId="29" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="1014">
+    <cfRule type="expression" dxfId="28" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="45" priority="1009">
+    <cfRule type="expression" dxfId="27" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1010">
+    <cfRule type="expression" dxfId="26" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1011">
+    <cfRule type="expression" dxfId="25" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="42" priority="1006">
+    <cfRule type="expression" dxfId="24" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1007">
+    <cfRule type="expression" dxfId="23" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="1008">
+    <cfRule type="expression" dxfId="22" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="39" priority="1003">
+    <cfRule type="expression" dxfId="21" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1004">
+    <cfRule type="expression" dxfId="20" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1005">
+    <cfRule type="expression" dxfId="19" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5856" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5854" uniqueCount="1886">
   <si>
     <t>Req ID</t>
   </si>
@@ -5860,9 +5860,6 @@
     <t>MS-OXORULE_R5472</t>
   </si>
   <si>
-    <t>Verified by derived requirement: MS-OXORULE_R5572.</t>
-  </si>
-  <si>
     <t>MS-OXORULE_R557:i,MS-OXORULE_R1:i</t>
   </si>
   <si>
@@ -5945,6 +5942,9 @@
   </si>
   <si>
     <t>[[In Appendix A: Product Behavior] Implementation does not define the behavior for PidTagHasRules. (&lt;13&gt; Section 2.2.8.1:  The server behavior is undefined in Exchange 2013 SP1.)</t>
+  </si>
+  <si>
+    <t>Verified by derived requirements: MS-OXORULE_R5571, MS-OXORULE_R5572.</t>
   </si>
 </sst>
 </file>
@@ -6271,21 +6271,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6310,11 +6295,56 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
+  <dxfs count="83">
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7092,34 +7122,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
   <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7128,12 +7158,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="2"/>
-    <tableColumn id="2" name="Test" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Scope" dataDxfId="8"/>
+    <tableColumn id="2" name="Test" dataDxfId="7"/>
+    <tableColumn id="3" name="Description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7429,13 +7459,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D741" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I750" sqref="I750"/>
+    <sheetView tabSelected="1" topLeftCell="A759" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C764" sqref="C764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="26" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
     <col min="4" max="4" width="37.42578125" style="3" customWidth="1"/>
@@ -7485,127 +7515,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7618,12 +7648,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7636,12 +7666,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7654,12 +7684,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7672,60 +7702,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -15525,7 +15555,7 @@
     </row>
     <row r="326" spans="1:9" ht="45">
       <c r="A326" s="22" t="s">
-        <v>1877</v>
+        <v>1876</v>
       </c>
       <c r="B326" s="30" t="s">
         <v>841</v>
@@ -22974,7 +23004,7 @@
         <v>893</v>
       </c>
       <c r="C621" s="20" t="s">
-        <v>1878</v>
+        <v>1877</v>
       </c>
       <c r="D621" s="29"/>
       <c r="E621" s="29" t="s">
@@ -22990,7 +23020,7 @@
         <v>17</v>
       </c>
       <c r="I621" s="20" t="s">
-        <v>1884</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="622" spans="1:9" ht="45">
@@ -23732,7 +23762,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="45">
+    <row r="651" spans="1:9" ht="60">
       <c r="A651" s="22" t="s">
         <v>657</v>
       </c>
@@ -23756,7 +23786,7 @@
         <v>17</v>
       </c>
       <c r="I651" s="20" t="s">
-        <v>1857</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="652" spans="1:9" ht="45">
@@ -24114,7 +24144,7 @@
         <v>17</v>
       </c>
       <c r="I665" s="20" t="s">
-        <v>1874</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="666" spans="1:9" ht="30">
@@ -25458,16 +25488,16 @@
     </row>
     <row r="717" spans="1:9" ht="45">
       <c r="A717" s="22" t="s">
-        <v>1872</v>
+        <v>1871</v>
       </c>
       <c r="B717" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C717" s="20" t="s">
-        <v>1873</v>
+        <v>1872</v>
       </c>
       <c r="D717" s="22" t="s">
-        <v>1871</v>
+        <v>1870</v>
       </c>
       <c r="E717" s="29" t="s">
         <v>22</v>
@@ -25574,7 +25604,7 @@
         <v>901</v>
       </c>
       <c r="C721" s="20" t="s">
-        <v>1882</v>
+        <v>1881</v>
       </c>
       <c r="D721" s="22" t="s">
         <v>1799</v>
@@ -25597,16 +25627,16 @@
     </row>
     <row r="722" spans="1:9" ht="45">
       <c r="A722" s="22" t="s">
-        <v>1880</v>
+        <v>1879</v>
       </c>
       <c r="B722" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C722" s="20" t="s">
-        <v>1881</v>
+        <v>1880</v>
       </c>
       <c r="D722" s="22" t="s">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="E722" s="35" t="s">
         <v>22</v>
@@ -25993,7 +26023,7 @@
         <v>901</v>
       </c>
       <c r="C736" s="20" t="s">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="D736" s="22" t="s">
         <v>1803</v>
@@ -26022,7 +26052,7 @@
         <v>901</v>
       </c>
       <c r="C737" s="20" t="s">
-        <v>1876</v>
+        <v>1875</v>
       </c>
       <c r="D737" s="22" t="s">
         <v>1803</v>
@@ -26192,7 +26222,7 @@
         <v>901</v>
       </c>
       <c r="C743" s="20" t="s">
-        <v>1883</v>
+        <v>1882</v>
       </c>
       <c r="D743" s="29" t="s">
         <v>1432</v>
@@ -26389,7 +26419,7 @@
         <v>901</v>
       </c>
       <c r="C750" s="20" t="s">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="D750" s="22" t="s">
         <v>1833</v>
@@ -26665,7 +26695,7 @@
         <v>901</v>
       </c>
       <c r="C760" s="39" t="s">
-        <v>1861</v>
+        <v>1860</v>
       </c>
       <c r="D760" s="37" t="s">
         <v>1849</v>
@@ -26680,11 +26710,9 @@
         <v>15</v>
       </c>
       <c r="H760" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I760" s="39" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I760" s="39"/>
     </row>
     <row r="761" spans="1:9" s="40" customFormat="1" ht="47.25">
       <c r="A761" s="37" t="s">
@@ -26694,7 +26722,7 @@
         <v>901</v>
       </c>
       <c r="C761" s="39" t="s">
-        <v>1862</v>
+        <v>1861</v>
       </c>
       <c r="D761" s="37" t="s">
         <v>1849</v>
@@ -26723,7 +26751,7 @@
         <v>901</v>
       </c>
       <c r="C762" s="39" t="s">
-        <v>1863</v>
+        <v>1862</v>
       </c>
       <c r="D762" s="22" t="s">
         <v>1854</v>
@@ -26738,11 +26766,9 @@
         <v>15</v>
       </c>
       <c r="H762" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I762" s="39" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I762" s="39"/>
     </row>
     <row r="763" spans="1:9" ht="47.25">
       <c r="A763" s="22" t="s">
@@ -26752,7 +26778,7 @@
         <v>901</v>
       </c>
       <c r="C763" s="39" t="s">
-        <v>1864</v>
+        <v>1863</v>
       </c>
       <c r="D763" s="22" t="s">
         <v>1854</v>
@@ -26775,16 +26801,16 @@
     </row>
     <row r="764" spans="1:9" ht="47.25">
       <c r="A764" s="22" t="s">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="B764" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C764" s="39" t="s">
-        <v>1865</v>
+        <v>1864</v>
       </c>
       <c r="D764" s="22" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E764" s="37" t="s">
         <v>22</v>
@@ -26804,16 +26830,16 @@
     </row>
     <row r="765" spans="1:9" ht="47.25">
       <c r="A765" s="22" t="s">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="B765" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C765" s="39" t="s">
-        <v>1866</v>
+        <v>1865</v>
       </c>
       <c r="D765" s="22" t="s">
-        <v>1858</v>
+        <v>1857</v>
       </c>
       <c r="E765" s="37" t="s">
         <v>22</v>
@@ -26833,13 +26859,13 @@
     </row>
     <row r="766" spans="1:9" ht="94.5">
       <c r="A766" s="22" t="s">
-        <v>1867</v>
+        <v>1866</v>
       </c>
       <c r="B766" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C766" s="39" t="s">
-        <v>1868</v>
+        <v>1867</v>
       </c>
       <c r="D766" s="22"/>
       <c r="E766" s="37" t="s">
@@ -26858,13 +26884,13 @@
     </row>
     <row r="767" spans="1:9" ht="47.25">
       <c r="A767" s="22" t="s">
-        <v>1869</v>
+        <v>1868</v>
       </c>
       <c r="B767" s="24" t="s">
         <v>901</v>
       </c>
       <c r="C767" s="39" t="s">
-        <v>1870</v>
+        <v>1869</v>
       </c>
       <c r="D767" s="22"/>
       <c r="E767" s="37" t="s">
@@ -28187,6 +28213,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28194,226 +28225,221 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="76" priority="1099">
+    <cfRule type="expression" dxfId="82" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1100">
+    <cfRule type="expression" dxfId="81" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="1107">
+    <cfRule type="expression" dxfId="80" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="73" priority="1053">
+    <cfRule type="expression" dxfId="79" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1054">
+    <cfRule type="expression" dxfId="78" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="1055">
+    <cfRule type="expression" dxfId="77" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
-    <cfRule type="expression" dxfId="70" priority="1059">
+    <cfRule type="expression" dxfId="76" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1060">
+    <cfRule type="expression" dxfId="75" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="68" priority="1050">
+    <cfRule type="expression" dxfId="74" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1051">
+    <cfRule type="expression" dxfId="73" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1052">
+    <cfRule type="expression" dxfId="72" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="65" priority="1047">
+    <cfRule type="expression" dxfId="71" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1048">
+    <cfRule type="expression" dxfId="70" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1049">
+    <cfRule type="expression" dxfId="69" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="62" priority="1044">
+    <cfRule type="expression" dxfId="68" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="1045">
+    <cfRule type="expression" dxfId="67" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="1046">
+    <cfRule type="expression" dxfId="66" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="59" priority="1039">
+    <cfRule type="expression" dxfId="65" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1040">
+    <cfRule type="expression" dxfId="64" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="1041">
+    <cfRule type="expression" dxfId="63" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="56" priority="1042">
+    <cfRule type="expression" dxfId="62" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1043">
+    <cfRule type="expression" dxfId="61" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="54" priority="1036">
+    <cfRule type="expression" dxfId="60" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1037">
+    <cfRule type="expression" dxfId="59" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1038">
+    <cfRule type="expression" dxfId="58" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="51" priority="1031">
+    <cfRule type="expression" dxfId="57" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1032">
+    <cfRule type="expression" dxfId="56" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="1033">
+    <cfRule type="expression" dxfId="55" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="48" priority="1034">
+    <cfRule type="expression" dxfId="54" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1035">
+    <cfRule type="expression" dxfId="53" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="46" priority="1028">
+    <cfRule type="expression" dxfId="52" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1029">
+    <cfRule type="expression" dxfId="51" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1030">
+    <cfRule type="expression" dxfId="50" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="43" priority="1023">
+    <cfRule type="expression" dxfId="49" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1024">
+    <cfRule type="expression" dxfId="48" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1025">
+    <cfRule type="expression" dxfId="47" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="40" priority="1026">
+    <cfRule type="expression" dxfId="46" priority="1026">
       <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1027">
+    <cfRule type="expression" dxfId="45" priority="1027">
       <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="38" priority="1021">
+    <cfRule type="expression" dxfId="44" priority="1021">
       <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1022">
+    <cfRule type="expression" dxfId="43" priority="1022">
       <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="36" priority="1018">
+    <cfRule type="expression" dxfId="42" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1019">
+    <cfRule type="expression" dxfId="41" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1020">
+    <cfRule type="expression" dxfId="40" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="33" priority="1015">
+    <cfRule type="expression" dxfId="39" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1016">
+    <cfRule type="expression" dxfId="38" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1017">
+    <cfRule type="expression" dxfId="37" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="30" priority="1012">
+    <cfRule type="expression" dxfId="36" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1013">
+    <cfRule type="expression" dxfId="35" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1014">
+    <cfRule type="expression" dxfId="34" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="27" priority="1009">
+    <cfRule type="expression" dxfId="33" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1010">
+    <cfRule type="expression" dxfId="32" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1011">
+    <cfRule type="expression" dxfId="31" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="24" priority="1006">
+    <cfRule type="expression" dxfId="30" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="1007">
+    <cfRule type="expression" dxfId="29" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1008">
+    <cfRule type="expression" dxfId="28" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="21" priority="1003">
+    <cfRule type="expression" dxfId="27" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1004">
+    <cfRule type="expression" dxfId="26" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="1005">
+    <cfRule type="expression" dxfId="25" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5854" uniqueCount="1886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5853" uniqueCount="1886">
   <si>
     <t>Req ID</t>
   </si>
@@ -5944,7 +5944,7 @@
     <t>[[In Appendix A: Product Behavior] Implementation does not define the behavior for PidTagHasRules. (&lt;13&gt; Section 2.2.8.1:  The server behavior is undefined in Exchange 2013 SP1.)</t>
   </si>
   <si>
-    <t>Verified by derived requirements: MS-OXORULE_R5571, MS-OXORULE_R5572.</t>
+    <t>Verified by derived requirement: MS-OXORULE_R5572.</t>
   </si>
 </sst>
 </file>
@@ -6271,6 +6271,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6295,56 +6310,11 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="83">
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <font>
         <b val="0"/>
@@ -7122,34 +7092,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I818" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
   <autoFilter ref="A19:I818"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="22">
+    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="21">
+    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="20">
+    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="19">
+    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="18">
+    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="17">
+    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="16">
+    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="15">
+    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="14">
+    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7158,12 +7128,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A12:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="8"/>
-    <tableColumn id="2" name="Test" dataDxfId="7"/>
-    <tableColumn id="3" name="Description" dataDxfId="6"/>
+    <tableColumn id="1" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7459,8 +7429,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A759" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C764" sqref="C764"/>
+    <sheetView tabSelected="1" topLeftCell="D645" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I651" sqref="I651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -7515,127 +7485,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7648,12 +7618,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7666,12 +7636,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7684,12 +7654,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7702,60 +7672,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -23762,7 +23732,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="60">
+    <row r="651" spans="1:9" ht="45">
       <c r="A651" s="22" t="s">
         <v>657</v>
       </c>
@@ -26822,11 +26792,9 @@
         <v>15</v>
       </c>
       <c r="H764" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I764" s="39" t="s">
-        <v>1511</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I764" s="39"/>
     </row>
     <row r="765" spans="1:9" ht="47.25">
       <c r="A765" s="22" t="s">
@@ -28213,11 +28181,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28225,221 +28188,226 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="82" priority="1099">
+    <cfRule type="expression" dxfId="76" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="1100">
+    <cfRule type="expression" dxfId="75" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="1107">
+    <cfRule type="expression" dxfId="74" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">
-    <cfRule type="expression" dxfId="79" priority="1053">
+    <cfRule type="expression" dxfId="73" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="1054">
+    <cfRule type="expression" dxfId="72" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="1055">
+    <cfRule type="expression" dxfId="71" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F819 F240:F817">
-    <cfRule type="expression" dxfId="76" priority="1059">
+    <cfRule type="expression" dxfId="70" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="1060">
+    <cfRule type="expression" dxfId="69" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="74" priority="1050">
+    <cfRule type="expression" dxfId="68" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1051">
+    <cfRule type="expression" dxfId="67" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="1052">
+    <cfRule type="expression" dxfId="66" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="71" priority="1047">
+    <cfRule type="expression" dxfId="65" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="1048">
+    <cfRule type="expression" dxfId="64" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="1049">
+    <cfRule type="expression" dxfId="63" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="68" priority="1044">
+    <cfRule type="expression" dxfId="62" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="1045">
+    <cfRule type="expression" dxfId="61" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="1046">
+    <cfRule type="expression" dxfId="60" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="65" priority="1039">
+    <cfRule type="expression" dxfId="59" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="1040">
+    <cfRule type="expression" dxfId="58" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="1041">
+    <cfRule type="expression" dxfId="57" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="62" priority="1042">
+    <cfRule type="expression" dxfId="56" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="1043">
+    <cfRule type="expression" dxfId="55" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="60" priority="1036">
+    <cfRule type="expression" dxfId="54" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="1037">
+    <cfRule type="expression" dxfId="53" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="1038">
+    <cfRule type="expression" dxfId="52" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="57" priority="1031">
+    <cfRule type="expression" dxfId="51" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1032">
+    <cfRule type="expression" dxfId="50" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1033">
+    <cfRule type="expression" dxfId="49" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="54" priority="1034">
+    <cfRule type="expression" dxfId="48" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1035">
+    <cfRule type="expression" dxfId="47" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="52" priority="1028">
+    <cfRule type="expression" dxfId="46" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="1029">
+    <cfRule type="expression" dxfId="45" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1030">
+    <cfRule type="expression" dxfId="44" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818:H818">
-    <cfRule type="expression" dxfId="49" priority="1023">
+    <cfRule type="expression" dxfId="43" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="1024">
+    <cfRule type="expression" dxfId="42" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1025">
+    <cfRule type="expression" dxfId="41" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="46" priority="1026">
+    <cfRule type="expression" dxfId="40" priority="1026">
       <formula>NOT(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1027">
+    <cfRule type="expression" dxfId="39" priority="1027">
       <formula>(VLOOKUP(F818,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F818">
-    <cfRule type="expression" dxfId="44" priority="1021">
+    <cfRule type="expression" dxfId="38" priority="1021">
       <formula>NOT(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="1022">
+    <cfRule type="expression" dxfId="37" priority="1022">
       <formula>(VLOOKUP(F818,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="42" priority="1018">
+    <cfRule type="expression" dxfId="36" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1019">
+    <cfRule type="expression" dxfId="35" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="1020">
+    <cfRule type="expression" dxfId="34" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B818">
-    <cfRule type="expression" dxfId="39" priority="1015">
+    <cfRule type="expression" dxfId="33" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1016">
+    <cfRule type="expression" dxfId="32" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="1017">
+    <cfRule type="expression" dxfId="31" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="36" priority="1012">
+    <cfRule type="expression" dxfId="30" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="1013">
+    <cfRule type="expression" dxfId="29" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1014">
+    <cfRule type="expression" dxfId="28" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C818">
-    <cfRule type="expression" dxfId="33" priority="1009">
+    <cfRule type="expression" dxfId="27" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="1010">
+    <cfRule type="expression" dxfId="26" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1011">
+    <cfRule type="expression" dxfId="25" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="30" priority="1006">
+    <cfRule type="expression" dxfId="24" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="1007">
+    <cfRule type="expression" dxfId="23" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1008">
+    <cfRule type="expression" dxfId="22" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A818">
-    <cfRule type="expression" dxfId="27" priority="1003">
+    <cfRule type="expression" dxfId="21" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1004">
+    <cfRule type="expression" dxfId="20" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1005">
+    <cfRule type="expression" dxfId="19" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -6271,21 +6271,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6309,6 +6294,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7429,16 +7429,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D645" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I651" sqref="I651"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" customWidth="1"/>
     <col min="2" max="2" width="13" style="3" customWidth="1"/>
     <col min="3" max="3" width="85" style="3" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="3" customWidth="1"/>
@@ -7485,127 +7483,127 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="21">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="78.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
       <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="33.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10">
@@ -7618,12 +7616,12 @@
       <c r="C12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
@@ -7636,12 +7634,12 @@
       <c r="C13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10">
@@ -7654,12 +7652,12 @@
       <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10">
@@ -7672,60 +7670,60 @@
       <c r="C15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="64.5" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="30" customHeight="1">
       <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="5"/>
       <c r="L18" s="4"/>
     </row>
@@ -28181,6 +28179,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -28188,11 +28191,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A819:I819 I771:I819 A240:I817">

--- a/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
+++ b/ExchangeMAPI/Docs/MS-OXORULE/MS-OXORULE_RequirementSpecification.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10991D31-2A16-4C30-BCC6-D516F4967EBA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570"/>
+    <workbookView xWindow="-15" yWindow="60" windowWidth="15405" windowHeight="6900" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -20,8 +21,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="tmp4A4" type="4" refreshedVersion="0" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="tmp4A4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\v-xiaoyj\AppData\Local\Temp\tmp4A4.tmp" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -5935,7 +5936,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0.0"/>
@@ -6302,316 +6303,6 @@
   <dxfs count="77">
     <dxf>
       <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6948,6 +6639,316 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7077,34 +7078,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Requirement" displayName="Requirement" ref="A19:I816" tableType="xml" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" connectionId="1">
-  <autoFilter ref="A19:I816"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I816" tableType="xml" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" connectionId="1">
+  <autoFilter ref="A19:I816" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="74">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="16">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="73">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="ns1:Doc_Sect" name="Doc Sect" dataDxfId="15">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Doc_Sect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ns1:Description" name="Description" dataDxfId="72">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="ns1:Description" name="Description" dataDxfId="14">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Description" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" uniqueName="ns1:Derived" name="Derived" dataDxfId="71">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="ns1:Derived" name="Derived" dataDxfId="13">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Derived" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="70">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="ns1:Behavior" name="Behavior" dataDxfId="12">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Behavior" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ns1:Scope" name="Scope" dataDxfId="69">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="ns1:Scope" name="Scope" dataDxfId="11">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Scope" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="68">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="ns1:IsNormative" name="Informative_x000a_/Normative" dataDxfId="10">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:IsNormative" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="ns1:Verification" name="Verification" dataDxfId="67">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="ns1:Verification" name="Verification" dataDxfId="9">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:Verification" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="66">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="ns1:VerificationComment" name="Verification Comment" dataDxfId="8">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:VerificationComment" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -7113,12 +7114,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="65" dataDxfId="63" headerRowBorderDxfId="64" tableBorderDxfId="62" totalsRowBorderDxfId="61">
-  <autoFilter ref="A12:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Scope" displayName="Scope" ref="A12:C15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A12:C15" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Scope" dataDxfId="60"/>
-    <tableColumn id="2" name="Test" dataDxfId="59"/>
-    <tableColumn id="3" name="Description" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Scope" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Test" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7200,6 +7201,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7235,6 +7253,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7410,7 +7445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L819"/>
   <sheetViews>
@@ -28123,242 +28158,242 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A817:I817 I769:I817 A240:I815">
-    <cfRule type="expression" dxfId="57" priority="1099">
+    <cfRule type="expression" dxfId="76" priority="1099">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="1100">
+    <cfRule type="expression" dxfId="75" priority="1100">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="1107">
+    <cfRule type="expression" dxfId="74" priority="1107">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A235:I238 E34:I233 A20:H233 A817:I817 I769:I817 A240:I815">
-    <cfRule type="expression" dxfId="54" priority="1053">
+    <cfRule type="expression" dxfId="73" priority="1053">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="1054">
+    <cfRule type="expression" dxfId="72" priority="1054">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="1055">
+    <cfRule type="expression" dxfId="71" priority="1055">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F233 F235:F238 F817 F240:F815">
-    <cfRule type="expression" dxfId="51" priority="1059">
+    <cfRule type="expression" dxfId="70" priority="1059">
       <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="1060">
+    <cfRule type="expression" dxfId="69" priority="1060">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="49" priority="1050">
+    <cfRule type="expression" dxfId="68" priority="1050">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="1051">
+    <cfRule type="expression" dxfId="67" priority="1051">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="1052">
+    <cfRule type="expression" dxfId="66" priority="1052">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20:I233 I235:I238">
-    <cfRule type="expression" dxfId="46" priority="1047">
+    <cfRule type="expression" dxfId="65" priority="1047">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="1048">
+    <cfRule type="expression" dxfId="64" priority="1048">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="1049">
+    <cfRule type="expression" dxfId="63" priority="1049">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="43" priority="1044">
+    <cfRule type="expression" dxfId="62" priority="1044">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="1045">
+    <cfRule type="expression" dxfId="61" priority="1045">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="1046">
+    <cfRule type="expression" dxfId="60" priority="1046">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234:J234">
-    <cfRule type="expression" dxfId="40" priority="1039">
+    <cfRule type="expression" dxfId="59" priority="1039">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="1040">
+    <cfRule type="expression" dxfId="58" priority="1040">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="1041">
+    <cfRule type="expression" dxfId="57" priority="1041">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F234">
-    <cfRule type="expression" dxfId="37" priority="1042">
+    <cfRule type="expression" dxfId="56" priority="1042">
       <formula>NOT(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="1043">
+    <cfRule type="expression" dxfId="55" priority="1043">
       <formula>(VLOOKUP(F234,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="35" priority="1036">
+    <cfRule type="expression" dxfId="54" priority="1036">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="1037">
+    <cfRule type="expression" dxfId="53" priority="1037">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="1038">
+    <cfRule type="expression" dxfId="52" priority="1038">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A239:J239">
-    <cfRule type="expression" dxfId="32" priority="1031">
+    <cfRule type="expression" dxfId="51" priority="1031">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="1032">
+    <cfRule type="expression" dxfId="50" priority="1032">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="1033">
+    <cfRule type="expression" dxfId="49" priority="1033">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F239">
-    <cfRule type="expression" dxfId="29" priority="1034">
+    <cfRule type="expression" dxfId="48" priority="1034">
       <formula>NOT(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="1035">
+    <cfRule type="expression" dxfId="47" priority="1035">
       <formula>(VLOOKUP(F239,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B816:H816">
-    <cfRule type="expression" dxfId="27" priority="1028">
+    <cfRule type="expression" dxfId="46" priority="1028">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="1029">
+    <cfRule type="expression" dxfId="45" priority="1029">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="1030">
+    <cfRule type="expression" dxfId="44" priority="1030">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B816:H816">
-    <cfRule type="expression" dxfId="24" priority="1023">
+    <cfRule type="expression" dxfId="43" priority="1023">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="1024">
+    <cfRule type="expression" dxfId="42" priority="1024">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="1025">
+    <cfRule type="expression" dxfId="41" priority="1025">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F816">
-    <cfRule type="expression" dxfId="21" priority="1026">
+    <cfRule type="expression" dxfId="40" priority="1026">
       <formula>NOT(VLOOKUP(F816,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="1027">
+    <cfRule type="expression" dxfId="39" priority="1027">
       <formula>(VLOOKUP(F816,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F816">
-    <cfRule type="expression" dxfId="19" priority="1021">
+    <cfRule type="expression" dxfId="38" priority="1021">
       <formula>NOT(VLOOKUP(F816,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="1022">
+    <cfRule type="expression" dxfId="37" priority="1022">
       <formula>(VLOOKUP(F816,$A$13:$C$16,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B816">
-    <cfRule type="expression" dxfId="17" priority="1018">
+    <cfRule type="expression" dxfId="36" priority="1018">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="1019">
+    <cfRule type="expression" dxfId="35" priority="1019">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="1020">
+    <cfRule type="expression" dxfId="34" priority="1020">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B816">
-    <cfRule type="expression" dxfId="14" priority="1015">
+    <cfRule type="expression" dxfId="33" priority="1015">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="1016">
+    <cfRule type="expression" dxfId="32" priority="1016">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="1017">
+    <cfRule type="expression" dxfId="31" priority="1017">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C816">
-    <cfRule type="expression" dxfId="11" priority="1012">
+    <cfRule type="expression" dxfId="30" priority="1012">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="1013">
+    <cfRule type="expression" dxfId="29" priority="1013">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="1014">
+    <cfRule type="expression" dxfId="28" priority="1014">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C816">
-    <cfRule type="expression" dxfId="8" priority="1009">
+    <cfRule type="expression" dxfId="27" priority="1009">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1010">
+    <cfRule type="expression" dxfId="26" priority="1010">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="1011">
+    <cfRule type="expression" dxfId="25" priority="1011">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816">
-    <cfRule type="expression" dxfId="5" priority="1006">
+    <cfRule type="expression" dxfId="24" priority="1006">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="1007">
+    <cfRule type="expression" dxfId="23" priority="1007">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1008">
+    <cfRule type="expression" dxfId="22" priority="1008">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A816">
-    <cfRule type="expression" dxfId="2" priority="1003">
+    <cfRule type="expression" dxfId="21" priority="1003">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1004">
+    <cfRule type="expression" dxfId="20" priority="1004">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1005">
+    <cfRule type="expression" dxfId="19" priority="1005">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F817 F20:F815">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F817 F20:F815" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$A$13:$A$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E817">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E20:E817" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Protocol,Product"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G817">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4 G20:G817" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Informative,Normative"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:B15" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"In, Out"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H233 H235:H238 H817 H240:H815">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H20:H233 H235:H238 H817 H240:H815" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H234 H239 H816">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H234 H239 H816" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Non-testable, Unverified, Adapter, Test Case, Deleted"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F816">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F816" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>$A$14:$A$16</formula1>
     </dataValidation>
   </dataValidations>
@@ -28368,7 +28403,7 @@
     <oddFooter>&amp;F&amp;RPage &amp;P</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="B722:B737 B19:B721 B738:B819" numberStoredAsText="1"/>
+    <ignoredError sqref="B722:B737 B19:B721 B738:B819 C3" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
